--- a/Nucleo_DCO接続一覧表.xlsx
+++ b/Nucleo_DCO接続一覧表.xlsx
@@ -5,23 +5,24 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\gizmo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\gizmo\Documents\Develop\Nucleo_DCO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="18195" windowHeight="11445"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="18195" windowHeight="11445" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Chart1" sheetId="4" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="164">
   <si>
     <t>Pin#</t>
     <phoneticPr fontId="1"/>
@@ -546,6 +547,119 @@
   <si>
     <t>ADC12</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SW2</t>
+  </si>
+  <si>
+    <t>SW6</t>
+  </si>
+  <si>
+    <t>SW4</t>
+  </si>
+  <si>
+    <t>SW3</t>
+  </si>
+  <si>
+    <t>SW0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SW1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SW5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SW7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GND</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SWx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>D15</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D14</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D13</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D12</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D11</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>D7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D0</t>
   </si>
 </sst>
 </file>
@@ -578,7 +692,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -651,6 +765,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -666,7 +792,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -727,6 +853,15 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -742,6 +877,829 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1730392176"/>
+        <c:axId val="1730393264"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1730392176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1730393264"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1730393264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1730392176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="111" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9293311" cy="6066824"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1034,106 +1992,111 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R63"/>
+  <dimension ref="A1:T63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L40" sqref="L40"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G65" sqref="G65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.625" customWidth="1"/>
     <col min="2" max="2" width="5.375" customWidth="1"/>
-    <col min="4" max="4" width="3" customWidth="1"/>
-    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.125" customWidth="1"/>
-    <col min="8" max="8" width="4.75" customWidth="1"/>
-    <col min="10" max="10" width="3" customWidth="1"/>
-    <col min="12" max="12" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.75" style="9" customWidth="1"/>
+    <col min="5" max="5" width="3" customWidth="1"/>
+    <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.125" customWidth="1"/>
+    <col min="9" max="9" width="4.75" customWidth="1"/>
+    <col min="11" max="11" width="4.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3" customWidth="1"/>
+    <col min="14" max="14" width="10.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A4" s="13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
       <c r="B5" s="13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
       <c r="B6" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13" t="s">
+      <c r="D6" s="22"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="G6" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="13"/>
+      <c r="I6" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="J6" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13" t="s">
+      <c r="K6" s="22"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="L6" s="13" t="s">
+      <c r="N6" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="H7">
+      <c r="E7" s="9"/>
+      <c r="I7">
         <v>2</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="J7" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="J7" s="9"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="L7" s="9"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
       <c r="B8">
         <v>3</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="H8">
+      <c r="E8" s="9"/>
+      <c r="I8">
         <v>4</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="J8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="15"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.15">
       <c r="B9">
         <v>5</v>
       </c>
@@ -1141,500 +2104,528 @@
         <v>8</v>
       </c>
       <c r="D9" s="14"/>
-      <c r="H9">
+      <c r="E9" s="14"/>
+      <c r="I9">
         <v>6</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="J9" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="J9" s="9"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="L9" s="9"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.15">
       <c r="B10">
         <v>7</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" t="s">
+      <c r="E10" s="4"/>
+      <c r="F10" t="s">
         <v>112</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>110</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>8</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="J10" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="L10" s="9"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.15">
       <c r="B11">
         <v>9</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="H11">
+      <c r="E11" s="9"/>
+      <c r="I11">
         <v>10</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="J11" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="J11" s="9"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="L11" s="9"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.15">
       <c r="B12">
         <v>11</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="17"/>
-      <c r="E12" t="s">
+      <c r="E12" s="17"/>
+      <c r="F12" t="s">
         <v>113</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>111</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>12</v>
       </c>
-      <c r="I12" s="9" t="s">
+      <c r="J12" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J12" s="9"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="L12" s="9"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.15">
       <c r="B13">
         <v>13</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="9"/>
-      <c r="H13">
+      <c r="E13" s="9"/>
+      <c r="I13">
         <v>14</v>
       </c>
-      <c r="I13" s="9" t="s">
+      <c r="J13" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="J13" s="9"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="L13" s="9"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.15">
       <c r="B14">
         <v>15</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="H14">
+      <c r="E14" s="9"/>
+      <c r="I14">
         <v>16</v>
       </c>
-      <c r="I14" s="14" t="s">
+      <c r="J14" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="J14" s="9"/>
-      <c r="L14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="R14" s="1"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="L14" s="9"/>
+      <c r="N14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="T14" s="1"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.15">
       <c r="B15" s="13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.15">
       <c r="B16" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13" t="s">
+      <c r="D16" s="22"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="G16" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13" t="s">
+      <c r="H16" s="13"/>
+      <c r="I16" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="I16" s="13" t="s">
+      <c r="J16" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13" t="s">
+      <c r="K16" s="22"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="L16" s="13" t="s">
+      <c r="N16" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="11"/>
-      <c r="E17" t="s">
+      <c r="D17" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="E17" s="11"/>
+      <c r="F17" t="s">
         <v>114</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>119</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>2</v>
       </c>
-      <c r="I17" s="9" t="s">
+      <c r="J17" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="J17" s="9"/>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="L17" s="9"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B18">
         <v>3</v>
       </c>
       <c r="C18" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="19"/>
-      <c r="E18" t="s">
+      <c r="D18" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E18" s="19"/>
+      <c r="F18" t="s">
         <v>114</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>120</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>4</v>
       </c>
-      <c r="I18" s="9" t="s">
+      <c r="J18" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="J18" s="9"/>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="L18" s="9"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B19">
         <v>5</v>
       </c>
       <c r="C19" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="3"/>
-      <c r="E19" t="s">
+      <c r="D19" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" t="s">
         <v>114</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>121</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>6</v>
       </c>
-      <c r="I19" s="9" t="s">
+      <c r="J19" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="J19" s="15"/>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B20">
         <v>7</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="2"/>
-      <c r="E20" t="s">
+      <c r="D20" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" t="s">
         <v>114</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>122</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>8</v>
       </c>
-      <c r="I20" s="9" t="s">
+      <c r="J20" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="J20" s="9"/>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="L20" s="9"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B21">
         <v>9</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="8"/>
-      <c r="E21" t="s">
+      <c r="D21" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="E21" s="8"/>
+      <c r="F21" t="s">
         <v>114</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>123</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>10</v>
       </c>
-      <c r="I21" s="9" t="s">
+      <c r="J21" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="J21" s="9"/>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="L21" s="9"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B22">
         <v>11</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="6"/>
-      <c r="E22" t="s">
+      <c r="D22" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" t="s">
         <v>114</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>124</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>12</v>
       </c>
-      <c r="I22" s="16" t="s">
+      <c r="J22" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="J22" s="9"/>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="L22" s="9"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B23">
         <v>13</v>
       </c>
       <c r="C23" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="9"/>
-      <c r="H23">
+      <c r="E23" s="9"/>
+      <c r="I23">
         <v>14</v>
       </c>
-      <c r="I23" s="9" t="s">
+      <c r="J23" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="J23" s="9"/>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="L23" s="9"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B24">
         <v>15</v>
       </c>
       <c r="C24" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="5"/>
-      <c r="E24" t="s">
+      <c r="E24" s="5"/>
+      <c r="F24" t="s">
         <v>114</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>125</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>16</v>
       </c>
-      <c r="I24" s="9" t="s">
+      <c r="J24" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="J24" s="9"/>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="L24" s="9"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B25">
         <v>17</v>
       </c>
       <c r="C25" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="9"/>
-      <c r="H25">
+      <c r="E25" s="9"/>
+      <c r="I25">
         <v>18</v>
       </c>
-      <c r="I25" s="9" t="s">
+      <c r="J25" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="J25" s="9"/>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="L25" s="9"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B26">
         <v>19</v>
       </c>
       <c r="C26" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="9"/>
-      <c r="H26">
+      <c r="E26" s="9"/>
+      <c r="I26">
         <v>20</v>
       </c>
-      <c r="I26" s="9" t="s">
+      <c r="J26" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="J26" s="9"/>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="L26" s="9"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B27">
         <v>21</v>
       </c>
       <c r="C27" t="s">
         <v>39</v>
       </c>
-      <c r="D27" s="9"/>
-      <c r="H27">
+      <c r="E27" s="9"/>
+      <c r="I27">
         <v>22</v>
       </c>
-      <c r="I27" s="9" t="s">
+      <c r="J27" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="J27" s="9"/>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="L27" s="9"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B28">
         <v>23</v>
       </c>
       <c r="C28" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D28" s="9"/>
-      <c r="H28">
+      <c r="E28" s="9"/>
+      <c r="I28">
         <v>24</v>
       </c>
-      <c r="I28" s="9" t="s">
+      <c r="J28" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="J28" s="7"/>
-      <c r="K28" t="s">
+      <c r="L28" s="7"/>
+      <c r="M28" t="s">
         <v>114</v>
       </c>
-      <c r="L28" t="s">
+      <c r="N28" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B29">
         <v>25</v>
       </c>
       <c r="C29" t="s">
         <v>41</v>
       </c>
-      <c r="D29" s="9"/>
-      <c r="H29">
+      <c r="E29" s="9"/>
+      <c r="I29">
         <v>26</v>
       </c>
-      <c r="I29" s="9" t="s">
+      <c r="J29" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="J29" s="11"/>
-      <c r="K29" t="s">
+      <c r="L29" s="11"/>
+      <c r="M29" t="s">
         <v>114</v>
       </c>
-      <c r="L29" t="s">
+      <c r="N29" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B30">
         <v>27</v>
       </c>
       <c r="C30" t="s">
         <v>42</v>
       </c>
-      <c r="D30" s="9"/>
-      <c r="H30">
+      <c r="E30" s="9"/>
+      <c r="I30">
         <v>28</v>
       </c>
-      <c r="I30" s="9" t="s">
+      <c r="J30" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="J30" s="4"/>
-      <c r="K30" t="s">
+      <c r="L30" s="4"/>
+      <c r="M30" t="s">
         <v>114</v>
       </c>
-      <c r="L30" t="s">
+      <c r="N30" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B31">
         <v>29</v>
       </c>
       <c r="C31" t="s">
         <v>43</v>
       </c>
-      <c r="D31" s="9"/>
-      <c r="H31">
+      <c r="E31" s="9"/>
+      <c r="I31">
         <v>30</v>
       </c>
-      <c r="I31" s="9" t="s">
+      <c r="J31" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="J31" s="15"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B33" s="13" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B34" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C34" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13" t="s">
+      <c r="D34" s="22"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F34" s="13" t="s">
+      <c r="G34" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13" t="s">
+      <c r="H34" s="13"/>
+      <c r="I34" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="I34" s="13" t="s">
+      <c r="J34" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13" t="s">
+      <c r="K34" s="22"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="L34" s="13" t="s">
+      <c r="N34" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B35">
         <v>1</v>
       </c>
       <c r="C35" t="s">
         <v>61</v>
       </c>
-      <c r="D35" s="9"/>
-      <c r="H35">
+      <c r="E35" s="9"/>
+      <c r="I35">
         <v>2</v>
       </c>
-      <c r="I35" s="9" t="s">
+      <c r="J35" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="J35" s="2"/>
-      <c r="K35" t="s">
+      <c r="K35" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="L35" s="2"/>
+      <c r="M35" t="s">
         <v>106</v>
       </c>
-      <c r="L35" t="s">
+      <c r="N35" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B36">
         <v>3</v>
       </c>
@@ -1642,202 +2633,230 @@
         <v>16</v>
       </c>
       <c r="D36" s="15"/>
-      <c r="H36">
+      <c r="E36" s="15"/>
+      <c r="I36">
         <v>4</v>
       </c>
-      <c r="I36" s="9" t="s">
+      <c r="J36" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="J36" s="3"/>
-      <c r="K36" t="s">
+      <c r="K36" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="L36" s="3"/>
+      <c r="M36" t="s">
         <v>107</v>
       </c>
-      <c r="L36" t="s">
+      <c r="N36" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B37">
         <v>5</v>
       </c>
       <c r="C37" t="s">
         <v>62</v>
       </c>
-      <c r="D37" s="9"/>
-      <c r="H37">
+      <c r="E37" s="9"/>
+      <c r="I37">
         <v>6</v>
       </c>
-      <c r="I37" s="16" t="s">
+      <c r="J37" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="J37" s="15"/>
-    </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="K37" s="15"/>
+      <c r="L37" s="15"/>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B38">
         <v>7</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D38" s="9"/>
-      <c r="H38">
+      <c r="E38" s="9"/>
+      <c r="I38">
         <v>8</v>
       </c>
-      <c r="I38" s="16" t="s">
+      <c r="J38" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="J38" s="9"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="L38" s="9"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B39">
         <v>9</v>
       </c>
       <c r="C39" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D39" s="9"/>
-      <c r="H39">
+      <c r="E39" s="9"/>
+      <c r="I39">
         <v>10</v>
       </c>
-      <c r="I39" s="9" t="s">
+      <c r="J39" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="J39" s="9"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="K39" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="L39" s="9"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B40">
         <v>11</v>
       </c>
       <c r="C40" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D40" s="9"/>
-      <c r="H40">
+      <c r="E40" s="9"/>
+      <c r="I40">
         <v>12</v>
       </c>
-      <c r="I40" s="9" t="s">
+      <c r="J40" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="J40" s="9"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="K40" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="L40" s="9"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B41">
         <v>13</v>
       </c>
       <c r="C41" t="s">
         <v>64</v>
       </c>
-      <c r="D41" s="9"/>
-      <c r="H41">
+      <c r="E41" s="9"/>
+      <c r="I41">
         <v>14</v>
       </c>
-      <c r="I41" s="9" t="s">
+      <c r="J41" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="J41" s="9"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="K41" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="L41" s="9"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B42">
         <v>15</v>
       </c>
       <c r="C42" t="s">
         <v>65</v>
       </c>
-      <c r="D42" s="9"/>
-      <c r="H42">
+      <c r="E42" s="9"/>
+      <c r="I42">
         <v>16</v>
       </c>
-      <c r="I42" s="9" t="s">
+      <c r="J42" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="J42" s="9"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="K42" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="L42" s="9"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B43">
         <v>17</v>
       </c>
       <c r="C43" t="s">
         <v>66</v>
       </c>
-      <c r="D43" s="3"/>
-      <c r="E43" t="s">
+      <c r="E43" s="3"/>
+      <c r="F43" t="s">
         <v>115</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <v>18</v>
       </c>
-      <c r="I43" s="9" t="s">
+      <c r="J43" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="J43" s="9"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="K43" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="L43" s="9"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B44">
         <v>19</v>
       </c>
       <c r="C44" t="s">
         <v>14</v>
       </c>
-      <c r="D44" s="9"/>
-      <c r="H44">
+      <c r="E44" s="9"/>
+      <c r="I44">
         <v>20</v>
       </c>
-      <c r="I44" s="9" t="s">
+      <c r="J44" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="J44" s="9"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="K44" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="L44" s="9"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B45" s="13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B46" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C46" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13" t="s">
+      <c r="D46" s="22"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F46" s="13" t="s">
+      <c r="G46" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G46" s="13"/>
-      <c r="H46" s="13" t="s">
+      <c r="H46" s="13"/>
+      <c r="I46" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="I46" s="13" t="s">
+      <c r="J46" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="J46" s="13"/>
-      <c r="K46" s="13" t="s">
+      <c r="K46" s="22"/>
+      <c r="L46" s="13"/>
+      <c r="M46" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="L46" s="13" t="s">
+      <c r="N46" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B47">
         <v>1</v>
       </c>
       <c r="C47" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="D47" s="9"/>
-      <c r="H47">
+      <c r="E47" s="9"/>
+      <c r="I47">
         <v>2</v>
       </c>
-      <c r="I47" s="9" t="s">
+      <c r="J47" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="J47" s="9"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="K47" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="L47" s="9"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B48">
         <v>3</v>
       </c>
@@ -1845,272 +2864,354 @@
         <v>17</v>
       </c>
       <c r="D48" s="15"/>
-      <c r="H48">
+      <c r="E48" s="15"/>
+      <c r="I48">
         <v>4</v>
       </c>
-      <c r="I48" s="9" t="s">
+      <c r="J48" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="J48" s="9"/>
-    </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="K48" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="L48" s="9"/>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B49">
         <v>5</v>
       </c>
       <c r="C49" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="D49" s="9"/>
-      <c r="H49">
+      <c r="E49" s="9"/>
+      <c r="I49">
         <v>6</v>
       </c>
-      <c r="I49" s="9" t="s">
+      <c r="J49" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="J49" s="18"/>
-      <c r="K49" t="s">
+      <c r="K49" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="L49" s="18"/>
+      <c r="M49" t="s">
         <v>116</v>
       </c>
-      <c r="L49" t="s">
+      <c r="N49" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B50">
         <v>7</v>
       </c>
       <c r="C50" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D50" s="3"/>
-      <c r="E50" t="s">
+      <c r="E50" s="3"/>
+      <c r="F50" t="s">
         <v>114</v>
       </c>
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>129</v>
       </c>
-      <c r="H50">
+      <c r="I50">
         <v>8</v>
       </c>
-      <c r="I50" s="9" t="s">
+      <c r="J50" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="J50" s="2"/>
-      <c r="K50" t="s">
+      <c r="K50" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="L50" s="2"/>
+      <c r="M50" t="s">
         <v>116</v>
       </c>
-      <c r="L50" t="s">
+      <c r="N50" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B51">
         <v>9</v>
       </c>
       <c r="C51" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D51" s="2"/>
-      <c r="E51" t="s">
+      <c r="E51" s="2"/>
+      <c r="F51" t="s">
         <v>114</v>
       </c>
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>130</v>
       </c>
-      <c r="H51">
+      <c r="I51">
         <v>10</v>
       </c>
-      <c r="I51" s="9" t="s">
+      <c r="J51" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="J51" s="9"/>
-    </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="K51" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="L51" s="9"/>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B52">
         <v>11</v>
       </c>
       <c r="C52" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D52" s="9"/>
-      <c r="H52">
+      <c r="E52" s="9"/>
+      <c r="I52">
         <v>12</v>
       </c>
-      <c r="I52" s="9" t="s">
+      <c r="J52" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="J52" s="9"/>
-    </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="K52" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="L52" s="9"/>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B53">
         <v>13</v>
       </c>
       <c r="C53" t="s">
         <v>81</v>
       </c>
-      <c r="D53" s="9"/>
-      <c r="H53">
+      <c r="E53" s="9"/>
+      <c r="I53">
         <v>14</v>
       </c>
-      <c r="I53" s="9" t="s">
+      <c r="J53" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="J53" s="9"/>
-    </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="K53" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="L53" s="9"/>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B54">
         <v>15</v>
       </c>
       <c r="C54" t="s">
         <v>82</v>
       </c>
-      <c r="D54" s="9"/>
-      <c r="H54">
+      <c r="E54" s="9"/>
+      <c r="I54">
         <v>16</v>
       </c>
-      <c r="I54" s="9" t="s">
+      <c r="J54" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="J54" s="9"/>
-    </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="K54" s="9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B55">
         <v>17</v>
       </c>
       <c r="C55" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D55" s="9"/>
-      <c r="H55">
+      <c r="E55" s="9"/>
+      <c r="I55">
         <v>18</v>
       </c>
-      <c r="I55" s="9" t="s">
+      <c r="J55" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="J55" s="9"/>
-    </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="L55" s="5"/>
+      <c r="M55" t="s">
+        <v>141</v>
+      </c>
+      <c r="N55" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B56">
         <v>19</v>
       </c>
       <c r="C56" t="s">
         <v>83</v>
       </c>
-      <c r="D56" s="9"/>
-      <c r="H56">
+      <c r="E56" s="9"/>
+      <c r="I56">
         <v>20</v>
       </c>
-      <c r="I56" s="9" t="s">
+      <c r="J56" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="J56" s="9"/>
-    </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="L56" s="17"/>
+      <c r="M56" t="s">
+        <v>141</v>
+      </c>
+      <c r="N56" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B57">
         <v>21</v>
       </c>
       <c r="C57" t="s">
         <v>84</v>
       </c>
-      <c r="D57" s="9"/>
-      <c r="H57">
+      <c r="E57" s="9"/>
+      <c r="I57">
         <v>22</v>
       </c>
-      <c r="I57" s="16" t="s">
+      <c r="J57" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="J57" s="9"/>
-    </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="L57" s="20"/>
+      <c r="M57" t="s">
+        <v>141</v>
+      </c>
+      <c r="N57" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B58">
         <v>23</v>
       </c>
       <c r="C58" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D58" s="9"/>
-      <c r="H58">
+      <c r="E58" s="9"/>
+      <c r="I58">
         <v>24</v>
       </c>
-      <c r="I58" s="9" t="s">
+      <c r="J58" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="J58" s="9"/>
-    </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="L58" s="9"/>
+      <c r="M58" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B59">
         <v>25</v>
       </c>
       <c r="C59" t="s">
         <v>86</v>
       </c>
-      <c r="D59" s="9"/>
-      <c r="H59">
+      <c r="E59" s="9"/>
+      <c r="I59">
         <v>26</v>
       </c>
-      <c r="I59" s="9" t="s">
+      <c r="J59" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="J59" s="9"/>
-    </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="L59" s="8"/>
+      <c r="M59" t="s">
+        <v>141</v>
+      </c>
+      <c r="N59" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B60">
         <v>27</v>
       </c>
       <c r="C60" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D60" s="9"/>
-      <c r="H60">
+      <c r="E60" s="9"/>
+      <c r="I60">
         <v>28</v>
       </c>
-      <c r="I60" s="9" t="s">
+      <c r="J60" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="J60" s="9"/>
-    </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="L60" s="2"/>
+      <c r="M60" t="s">
+        <v>141</v>
+      </c>
+      <c r="N60" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B61">
         <v>29</v>
       </c>
       <c r="C61" t="s">
         <v>87</v>
       </c>
-      <c r="D61" s="9"/>
-      <c r="H61">
+      <c r="E61" s="9"/>
+      <c r="I61">
         <v>30</v>
       </c>
-      <c r="I61" s="9" t="s">
+      <c r="J61" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="J61" s="15"/>
-    </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="K61" s="15"/>
+      <c r="L61" s="18"/>
+      <c r="M61" t="s">
+        <v>141</v>
+      </c>
+      <c r="N61" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B62">
         <v>31</v>
       </c>
       <c r="C62" t="s">
         <v>88</v>
       </c>
-      <c r="H62">
+      <c r="I62">
         <v>32</v>
       </c>
-      <c r="I62" s="9" t="s">
+      <c r="J62" s="9" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="L62" s="4"/>
+      <c r="M62" t="s">
+        <v>141</v>
+      </c>
+      <c r="N62" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B63">
         <v>33</v>
       </c>
       <c r="C63" t="s">
         <v>89</v>
       </c>
-      <c r="H63">
+      <c r="E63" s="21"/>
+      <c r="F63" t="s">
+        <v>141</v>
+      </c>
+      <c r="G63" t="s">
+        <v>138</v>
+      </c>
+      <c r="I63">
         <v>34</v>
       </c>
-      <c r="I63" s="9" t="s">
+      <c r="J63" s="9" t="s">
         <v>105</v>
+      </c>
+      <c r="L63" s="11"/>
+      <c r="M63" t="s">
+        <v>141</v>
+      </c>
+      <c r="N63" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/Nucleo_DCO接続一覧表.xlsx
+++ b/Nucleo_DCO接続一覧表.xlsx
@@ -792,7 +792,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -862,6 +862,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -894,7 +897,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -972,11 +974,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1730392176"/>
-        <c:axId val="1730393264"/>
+        <c:axId val="75492304"/>
+        <c:axId val="75501552"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1730392176"/>
+        <c:axId val="75492304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1018,7 +1020,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1730393264"/>
+        <c:crossAx val="75501552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1026,7 +1028,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1730393264"/>
+        <c:axId val="75501552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1077,7 +1079,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1730392176"/>
+        <c:crossAx val="75492304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1995,7 +1997,7 @@
   <dimension ref="A1:T63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G65" sqref="G65"/>
+      <selection activeCell="M52" sqref="M52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2893,7 +2895,7 @@
       <c r="K49" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="L49" s="18"/>
+      <c r="L49" s="23"/>
       <c r="M49" t="s">
         <v>116</v>
       </c>
@@ -2924,7 +2926,7 @@
       <c r="K50" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="L50" s="2"/>
+      <c r="L50" s="3"/>
       <c r="M50" t="s">
         <v>116</v>
       </c>

--- a/Nucleo_DCO接続一覧表.xlsx
+++ b/Nucleo_DCO接続一覧表.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="165">
   <si>
     <t>Pin#</t>
     <phoneticPr fontId="1"/>
@@ -106,10 +106,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2018.09.06</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Nucleo F767ZI</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -525,141 +521,149 @@
     <t>ADC6</t>
   </si>
   <si>
+    <t>ADC8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ADC9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ADC10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ADC11</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ADC12</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SW2</t>
+  </si>
+  <si>
+    <t>SW6</t>
+  </si>
+  <si>
+    <t>SW4</t>
+  </si>
+  <si>
+    <t>SW3</t>
+  </si>
+  <si>
+    <t>SW0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SW1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SW5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SW7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GND</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SWx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>D15</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D14</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D13</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D12</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D11</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>D7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D0</t>
+  </si>
+  <si>
+    <t>POTs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>ADC7</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ADC8</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ADC9</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ADC10</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ADC11</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ADC12</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SW2</t>
-  </si>
-  <si>
-    <t>SW6</t>
-  </si>
-  <si>
-    <t>SW4</t>
-  </si>
-  <si>
-    <t>SW3</t>
-  </si>
-  <si>
-    <t>SW0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SW1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SW5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SW7</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>GND</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SWx</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>A5</t>
-  </si>
-  <si>
-    <t>D15</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D14</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D13</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D12</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D11</t>
-  </si>
-  <si>
-    <t>D10</t>
-  </si>
-  <si>
-    <t>D9</t>
-  </si>
-  <si>
-    <t>D8</t>
-  </si>
-  <si>
-    <t>D7</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D6</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D5</t>
-  </si>
-  <si>
-    <t>D4</t>
-  </si>
-  <si>
-    <t>D3</t>
-  </si>
-  <si>
-    <t>D2</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>D0</t>
+    <t>2018.09.11</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -692,7 +696,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -777,13 +781,34 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -792,7 +817,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -863,6 +888,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -974,11 +1002,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="75492304"/>
-        <c:axId val="75501552"/>
+        <c:axId val="1626099232"/>
+        <c:axId val="1626107392"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="75492304"/>
+        <c:axId val="1626099232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1020,7 +1048,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75501552"/>
+        <c:crossAx val="1626107392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1028,7 +1056,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75501552"/>
+        <c:axId val="1626107392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1079,7 +1107,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75492304"/>
+        <c:crossAx val="1626099232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1996,8 +2024,8 @@
   </sheetPr>
   <dimension ref="A1:T63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="M52" sqref="M52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2021,17 +2049,17 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A4" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.15">
       <c r="B5" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.15">
@@ -2070,14 +2098,14 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7" s="9"/>
       <c r="I7">
         <v>2</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L7" s="9"/>
     </row>
@@ -2120,14 +2148,14 @@
         <v>7</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I10">
         <v>8</v>
@@ -2142,7 +2170,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E11" s="9"/>
       <c r="I11">
@@ -2162,10 +2190,10 @@
       </c>
       <c r="E12" s="17"/>
       <c r="F12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I12">
         <v>12</v>
@@ -2187,7 +2215,7 @@
         <v>14</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L13" s="9"/>
     </row>
@@ -2203,7 +2231,7 @@
         <v>16</v>
       </c>
       <c r="J14" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L14" s="9"/>
       <c r="N14" s="1"/>
@@ -2212,7 +2240,7 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.15">
       <c r="B15" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.15">
@@ -2251,23 +2279,23 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E17" s="11"/>
       <c r="F17" t="s">
-        <v>114</v>
+        <v>162</v>
       </c>
       <c r="G17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I17">
         <v>2</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L17" s="9"/>
     </row>
@@ -2276,23 +2304,23 @@
         <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E18" s="19"/>
       <c r="F18" t="s">
-        <v>114</v>
+        <v>162</v>
       </c>
       <c r="G18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I18">
         <v>4</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L18" s="9"/>
     </row>
@@ -2301,23 +2329,23 @@
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" t="s">
-        <v>114</v>
+        <v>162</v>
       </c>
       <c r="G19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I19">
         <v>6</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K19" s="15"/>
       <c r="L19" s="15"/>
@@ -2327,23 +2355,23 @@
         <v>7</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s">
-        <v>114</v>
+        <v>162</v>
       </c>
       <c r="G20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I20">
         <v>8</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L20" s="9"/>
     </row>
@@ -2352,23 +2380,23 @@
         <v>9</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" t="s">
-        <v>114</v>
+        <v>162</v>
       </c>
       <c r="G21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I21">
         <v>10</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L21" s="9"/>
     </row>
@@ -2377,23 +2405,23 @@
         <v>11</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" t="s">
-        <v>114</v>
+        <v>162</v>
       </c>
       <c r="G22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I22">
         <v>12</v>
       </c>
       <c r="J22" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L22" s="9"/>
     </row>
@@ -2402,14 +2430,14 @@
         <v>13</v>
       </c>
       <c r="C23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E23" s="9"/>
       <c r="I23">
         <v>14</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L23" s="9"/>
     </row>
@@ -2418,20 +2446,14 @@
         <v>15</v>
       </c>
       <c r="C24" t="s">
-        <v>36</v>
-      </c>
-      <c r="E24" s="5"/>
-      <c r="F24" t="s">
-        <v>114</v>
-      </c>
-      <c r="G24" t="s">
-        <v>125</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="E24" s="9"/>
       <c r="I24">
         <v>16</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L24" s="9"/>
     </row>
@@ -2440,14 +2462,14 @@
         <v>17</v>
       </c>
       <c r="C25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E25" s="9"/>
       <c r="I25">
         <v>18</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L25" s="9"/>
     </row>
@@ -2456,14 +2478,14 @@
         <v>19</v>
       </c>
       <c r="C26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E26" s="9"/>
       <c r="I26">
         <v>20</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L26" s="9"/>
     </row>
@@ -2472,14 +2494,14 @@
         <v>21</v>
       </c>
       <c r="C27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E27" s="9"/>
       <c r="I27">
         <v>22</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L27" s="9"/>
     </row>
@@ -2488,21 +2510,21 @@
         <v>23</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E28" s="9"/>
       <c r="I28">
         <v>24</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L28" s="7"/>
       <c r="M28" t="s">
-        <v>114</v>
+        <v>162</v>
       </c>
       <c r="N28" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.15">
@@ -2510,21 +2532,21 @@
         <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E29" s="9"/>
       <c r="I29">
         <v>26</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="L29" s="11"/>
+        <v>55</v>
+      </c>
+      <c r="L29" s="24"/>
       <c r="M29" t="s">
-        <v>114</v>
+        <v>162</v>
       </c>
       <c r="N29" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.15">
@@ -2532,21 +2554,21 @@
         <v>27</v>
       </c>
       <c r="C30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E30" s="9"/>
       <c r="I30">
         <v>28</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="L30" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="L30" s="20"/>
       <c r="M30" t="s">
-        <v>114</v>
+        <v>162</v>
       </c>
       <c r="N30" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.15">
@@ -2554,21 +2576,21 @@
         <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E31" s="9"/>
       <c r="I31">
         <v>30</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K31" s="15"/>
       <c r="L31" s="15"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B33" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.15">
@@ -2607,24 +2629,24 @@
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E35" s="9"/>
       <c r="I35">
         <v>2</v>
       </c>
       <c r="J35" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K35" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="L35" s="2"/>
       <c r="M35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.15">
@@ -2640,17 +2662,17 @@
         <v>4</v>
       </c>
       <c r="J36" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K36" s="9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L36" s="3"/>
       <c r="M36" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N36" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.15">
@@ -2658,14 +2680,14 @@
         <v>5</v>
       </c>
       <c r="C37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E37" s="9"/>
       <c r="I37">
         <v>6</v>
       </c>
       <c r="J37" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K37" s="15"/>
       <c r="L37" s="15"/>
@@ -2682,7 +2704,7 @@
         <v>8</v>
       </c>
       <c r="J38" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L38" s="9"/>
     </row>
@@ -2698,10 +2720,10 @@
         <v>10</v>
       </c>
       <c r="J39" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K39" s="9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="L39" s="9"/>
     </row>
@@ -2710,17 +2732,17 @@
         <v>11</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E40" s="9"/>
       <c r="I40">
         <v>12</v>
       </c>
       <c r="J40" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K40" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L40" s="9"/>
     </row>
@@ -2729,17 +2751,17 @@
         <v>13</v>
       </c>
       <c r="C41" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E41" s="9"/>
       <c r="I41">
         <v>14</v>
       </c>
       <c r="J41" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K41" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="L41" s="9"/>
     </row>
@@ -2748,17 +2770,17 @@
         <v>15</v>
       </c>
       <c r="C42" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E42" s="9"/>
       <c r="I42">
         <v>16</v>
       </c>
       <c r="J42" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K42" s="9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="L42" s="9"/>
     </row>
@@ -2767,20 +2789,20 @@
         <v>17</v>
       </c>
       <c r="C43" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I43">
         <v>18</v>
       </c>
       <c r="J43" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K43" s="9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="L43" s="9"/>
     </row>
@@ -2796,16 +2818,16 @@
         <v>20</v>
       </c>
       <c r="J44" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K44" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="L44" s="9"/>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B45" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.15">
@@ -2844,17 +2866,17 @@
         <v>1</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E47" s="9"/>
       <c r="I47">
         <v>2</v>
       </c>
       <c r="J47" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K47" s="9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L47" s="9"/>
     </row>
@@ -2871,10 +2893,10 @@
         <v>4</v>
       </c>
       <c r="J48" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K48" s="9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L48" s="9"/>
     </row>
@@ -2883,24 +2905,24 @@
         <v>5</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E49" s="9"/>
       <c r="I49">
         <v>6</v>
       </c>
       <c r="J49" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K49" s="9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="L49" s="23"/>
       <c r="M49" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N49" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="50" spans="2:14" x14ac:dyDescent="0.15">
@@ -2908,30 +2930,30 @@
         <v>7</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G50" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I50">
         <v>8</v>
       </c>
       <c r="J50" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K50" s="9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L50" s="3"/>
       <c r="M50" t="s">
+        <v>115</v>
+      </c>
+      <c r="N50" t="s">
         <v>116</v>
-      </c>
-      <c r="N50" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="51" spans="2:14" x14ac:dyDescent="0.15">
@@ -2939,23 +2961,23 @@
         <v>9</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G51" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I51">
         <v>10</v>
       </c>
       <c r="J51" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K51" s="9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="L51" s="9"/>
     </row>
@@ -2964,17 +2986,17 @@
         <v>11</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E52" s="9"/>
       <c r="I52">
         <v>12</v>
       </c>
       <c r="J52" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K52" s="9" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="L52" s="9"/>
     </row>
@@ -2983,17 +3005,17 @@
         <v>13</v>
       </c>
       <c r="C53" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E53" s="9"/>
       <c r="I53">
         <v>14</v>
       </c>
       <c r="J53" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K53" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L53" s="9"/>
     </row>
@@ -3002,17 +3024,17 @@
         <v>15</v>
       </c>
       <c r="C54" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E54" s="9"/>
       <c r="I54">
         <v>16</v>
       </c>
       <c r="J54" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K54" s="9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="55" spans="2:14" x14ac:dyDescent="0.15">
@@ -3027,14 +3049,14 @@
         <v>18</v>
       </c>
       <c r="J55" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L55" s="5"/>
       <c r="M55" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="N55" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="56" spans="2:14" x14ac:dyDescent="0.15">
@@ -3042,21 +3064,21 @@
         <v>19</v>
       </c>
       <c r="C56" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E56" s="9"/>
       <c r="I56">
         <v>20</v>
       </c>
       <c r="J56" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L56" s="17"/>
       <c r="M56" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="N56" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="57" spans="2:14" x14ac:dyDescent="0.15">
@@ -3064,21 +3086,21 @@
         <v>21</v>
       </c>
       <c r="C57" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E57" s="9"/>
       <c r="I57">
         <v>22</v>
       </c>
       <c r="J57" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L57" s="20"/>
       <c r="M57" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="N57" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="58" spans="2:14" x14ac:dyDescent="0.15">
@@ -3086,18 +3108,18 @@
         <v>23</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E58" s="9"/>
       <c r="I58">
         <v>24</v>
       </c>
       <c r="J58" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L58" s="9"/>
       <c r="M58" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="59" spans="2:14" x14ac:dyDescent="0.15">
@@ -3105,21 +3127,21 @@
         <v>25</v>
       </c>
       <c r="C59" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E59" s="9"/>
       <c r="I59">
         <v>26</v>
       </c>
       <c r="J59" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L59" s="8"/>
       <c r="M59" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="N59" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="60" spans="2:14" x14ac:dyDescent="0.15">
@@ -3134,14 +3156,14 @@
         <v>28</v>
       </c>
       <c r="J60" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L60" s="2"/>
       <c r="M60" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="N60" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="61" spans="2:14" x14ac:dyDescent="0.15">
@@ -3149,22 +3171,28 @@
         <v>29</v>
       </c>
       <c r="C61" t="s">
-        <v>87</v>
-      </c>
-      <c r="E61" s="9"/>
+        <v>86</v>
+      </c>
+      <c r="E61" s="5"/>
+      <c r="F61" t="s">
+        <v>162</v>
+      </c>
+      <c r="G61" t="s">
+        <v>163</v>
+      </c>
       <c r="I61">
         <v>30</v>
       </c>
       <c r="J61" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K61" s="15"/>
       <c r="L61" s="18"/>
       <c r="M61" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="N61" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="62" spans="2:14" x14ac:dyDescent="0.15">
@@ -3172,20 +3200,20 @@
         <v>31</v>
       </c>
       <c r="C62" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I62">
         <v>32</v>
       </c>
       <c r="J62" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L62" s="4"/>
       <c r="M62" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="N62" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="63" spans="2:14" x14ac:dyDescent="0.15">
@@ -3193,27 +3221,27 @@
         <v>33</v>
       </c>
       <c r="C63" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E63" s="21"/>
       <c r="F63" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G63" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I63">
         <v>34</v>
       </c>
       <c r="J63" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L63" s="11"/>
       <c r="M63" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="N63" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/Nucleo_DCO接続一覧表.xlsx
+++ b/Nucleo_DCO接続一覧表.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="177">
   <si>
     <t>Pin#</t>
     <phoneticPr fontId="1"/>
@@ -482,10 +482,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>POT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>OUT</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -662,7 +658,59 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2018.09.11</t>
+    <t>2018.09.15</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ROTENCs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RE1A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RE1B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RE2A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RE2B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RE3A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RE3B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RE4A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RE4B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RE5A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RE5B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RE6A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RE6B</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1002,11 +1050,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1626099232"/>
-        <c:axId val="1626107392"/>
+        <c:axId val="1194496544"/>
+        <c:axId val="1194492736"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1626099232"/>
+        <c:axId val="1194496544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1048,7 +1096,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1626107392"/>
+        <c:crossAx val="1194492736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1056,7 +1104,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1626107392"/>
+        <c:axId val="1194492736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1107,7 +1155,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1626099232"/>
+        <c:crossAx val="1194496544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2025,7 +2073,7 @@
   <dimension ref="A1:T63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2049,7 +2097,7 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.15">
@@ -2107,7 +2155,13 @@
       <c r="J7" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="L7" s="9"/>
+      <c r="L7" s="3"/>
+      <c r="M7" t="s">
+        <v>164</v>
+      </c>
+      <c r="N7" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.15">
       <c r="B8">
@@ -2124,7 +2178,13 @@
         <v>13</v>
       </c>
       <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
+      <c r="L8" s="23"/>
+      <c r="M8" t="s">
+        <v>164</v>
+      </c>
+      <c r="N8" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.15">
       <c r="B9">
@@ -2141,7 +2201,13 @@
       <c r="J9" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="L9" s="9"/>
+      <c r="L9" s="8"/>
+      <c r="M9" t="s">
+        <v>164</v>
+      </c>
+      <c r="N9" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.15">
       <c r="B10">
@@ -2163,7 +2229,13 @@
       <c r="J10" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="9"/>
+      <c r="L10" s="24"/>
+      <c r="M10" t="s">
+        <v>164</v>
+      </c>
+      <c r="N10" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.15">
       <c r="B11">
@@ -2180,6 +2252,12 @@
         <v>2</v>
       </c>
       <c r="L11" s="9"/>
+      <c r="M11" t="s">
+        <v>164</v>
+      </c>
+      <c r="N11" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.15">
       <c r="B12">
@@ -2202,6 +2280,12 @@
         <v>6</v>
       </c>
       <c r="L12" s="9"/>
+      <c r="M12" t="s">
+        <v>164</v>
+      </c>
+      <c r="N12" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.15">
       <c r="B13">
@@ -2218,6 +2302,12 @@
         <v>26</v>
       </c>
       <c r="L13" s="9"/>
+      <c r="M13" t="s">
+        <v>164</v>
+      </c>
+      <c r="N13" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.15">
       <c r="B14">
@@ -2234,7 +2324,12 @@
         <v>27</v>
       </c>
       <c r="L14" s="9"/>
-      <c r="N14" s="1"/>
+      <c r="M14" t="s">
+        <v>164</v>
+      </c>
+      <c r="N14" t="s">
+        <v>172</v>
+      </c>
       <c r="Q14" s="1"/>
       <c r="T14" s="1"/>
     </row>
@@ -2282,14 +2377,14 @@
         <v>28</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E17" s="11"/>
       <c r="F17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I17">
         <v>2</v>
@@ -2298,6 +2393,12 @@
         <v>43</v>
       </c>
       <c r="L17" s="9"/>
+      <c r="M17" t="s">
+        <v>164</v>
+      </c>
+      <c r="N17" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B18">
@@ -2307,14 +2408,14 @@
         <v>29</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E18" s="19"/>
       <c r="F18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I18">
         <v>4</v>
@@ -2323,6 +2424,12 @@
         <v>44</v>
       </c>
       <c r="L18" s="9"/>
+      <c r="M18" t="s">
+        <v>164</v>
+      </c>
+      <c r="N18" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B19">
@@ -2332,14 +2439,14 @@
         <v>30</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I19">
         <v>6</v>
@@ -2349,6 +2456,12 @@
       </c>
       <c r="K19" s="15"/>
       <c r="L19" s="15"/>
+      <c r="M19" t="s">
+        <v>164</v>
+      </c>
+      <c r="N19" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B20">
@@ -2358,14 +2471,14 @@
         <v>31</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I20">
         <v>8</v>
@@ -2374,6 +2487,12 @@
         <v>46</v>
       </c>
       <c r="L20" s="9"/>
+      <c r="M20" t="s">
+        <v>164</v>
+      </c>
+      <c r="N20" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B21">
@@ -2383,14 +2502,14 @@
         <v>32</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I21">
         <v>10</v>
@@ -2408,14 +2527,14 @@
         <v>33</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I22">
         <v>12</v>
@@ -2521,10 +2640,10 @@
       </c>
       <c r="L28" s="7"/>
       <c r="M28" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.15">
@@ -2543,10 +2662,10 @@
       </c>
       <c r="L29" s="24"/>
       <c r="M29" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N29" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.15">
@@ -2565,10 +2684,10 @@
       </c>
       <c r="L30" s="20"/>
       <c r="M30" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N30" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.15">
@@ -2639,7 +2758,7 @@
         <v>66</v>
       </c>
       <c r="K35" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L35" s="2"/>
       <c r="M35" t="s">
@@ -2665,7 +2784,7 @@
         <v>67</v>
       </c>
       <c r="K36" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L36" s="3"/>
       <c r="M36" t="s">
@@ -2723,7 +2842,7 @@
         <v>70</v>
       </c>
       <c r="K39" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L39" s="9"/>
     </row>
@@ -2742,7 +2861,7 @@
         <v>71</v>
       </c>
       <c r="K40" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L40" s="9"/>
     </row>
@@ -2761,7 +2880,7 @@
         <v>35</v>
       </c>
       <c r="K41" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L41" s="9"/>
     </row>
@@ -2780,7 +2899,7 @@
         <v>72</v>
       </c>
       <c r="K42" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L42" s="9"/>
     </row>
@@ -2793,7 +2912,7 @@
       </c>
       <c r="E43" s="3"/>
       <c r="F43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I43">
         <v>18</v>
@@ -2802,7 +2921,7 @@
         <v>73</v>
       </c>
       <c r="K43" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L43" s="9"/>
     </row>
@@ -2821,7 +2940,7 @@
         <v>74</v>
       </c>
       <c r="K44" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L44" s="9"/>
     </row>
@@ -2876,7 +2995,7 @@
         <v>89</v>
       </c>
       <c r="K47" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L47" s="9"/>
     </row>
@@ -2896,7 +3015,7 @@
         <v>90</v>
       </c>
       <c r="K48" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L48" s="9"/>
     </row>
@@ -2915,14 +3034,14 @@
         <v>91</v>
       </c>
       <c r="K49" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L49" s="23"/>
       <c r="M49" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N49" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="50" spans="2:14" x14ac:dyDescent="0.15">
@@ -2934,10 +3053,10 @@
       </c>
       <c r="E50" s="3"/>
       <c r="F50" t="s">
-        <v>113</v>
+        <v>161</v>
       </c>
       <c r="G50" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I50">
         <v>8</v>
@@ -2946,14 +3065,14 @@
         <v>92</v>
       </c>
       <c r="K50" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L50" s="3"/>
       <c r="M50" t="s">
+        <v>114</v>
+      </c>
+      <c r="N50" t="s">
         <v>115</v>
-      </c>
-      <c r="N50" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="51" spans="2:14" x14ac:dyDescent="0.15">
@@ -2965,10 +3084,10 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s">
-        <v>113</v>
+        <v>161</v>
       </c>
       <c r="G51" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I51">
         <v>10</v>
@@ -2977,7 +3096,7 @@
         <v>93</v>
       </c>
       <c r="K51" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L51" s="9"/>
     </row>
@@ -2996,7 +3115,7 @@
         <v>94</v>
       </c>
       <c r="K52" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L52" s="9"/>
     </row>
@@ -3015,7 +3134,7 @@
         <v>95</v>
       </c>
       <c r="K53" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L53" s="9"/>
     </row>
@@ -3034,7 +3153,7 @@
         <v>96</v>
       </c>
       <c r="K54" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="55" spans="2:14" x14ac:dyDescent="0.15">
@@ -3053,10 +3172,10 @@
       </c>
       <c r="L55" s="5"/>
       <c r="M55" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N55" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="56" spans="2:14" x14ac:dyDescent="0.15">
@@ -3075,10 +3194,10 @@
       </c>
       <c r="L56" s="17"/>
       <c r="M56" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N56" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="57" spans="2:14" x14ac:dyDescent="0.15">
@@ -3097,10 +3216,10 @@
       </c>
       <c r="L57" s="20"/>
       <c r="M57" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N57" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="58" spans="2:14" x14ac:dyDescent="0.15">
@@ -3119,7 +3238,7 @@
       </c>
       <c r="L58" s="9"/>
       <c r="M58" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="59" spans="2:14" x14ac:dyDescent="0.15">
@@ -3138,10 +3257,10 @@
       </c>
       <c r="L59" s="8"/>
       <c r="M59" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N59" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="60" spans="2:14" x14ac:dyDescent="0.15">
@@ -3160,10 +3279,10 @@
       </c>
       <c r="L60" s="2"/>
       <c r="M60" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N60" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="61" spans="2:14" x14ac:dyDescent="0.15">
@@ -3175,10 +3294,10 @@
       </c>
       <c r="E61" s="5"/>
       <c r="F61" t="s">
+        <v>161</v>
+      </c>
+      <c r="G61" t="s">
         <v>162</v>
-      </c>
-      <c r="G61" t="s">
-        <v>163</v>
       </c>
       <c r="I61">
         <v>30</v>
@@ -3189,10 +3308,10 @@
       <c r="K61" s="15"/>
       <c r="L61" s="18"/>
       <c r="M61" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N61" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="62" spans="2:14" x14ac:dyDescent="0.15">
@@ -3210,10 +3329,10 @@
       </c>
       <c r="L62" s="4"/>
       <c r="M62" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N62" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="63" spans="2:14" x14ac:dyDescent="0.15">
@@ -3225,10 +3344,10 @@
       </c>
       <c r="E63" s="21"/>
       <c r="F63" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G63" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I63">
         <v>34</v>
@@ -3238,10 +3357,10 @@
       </c>
       <c r="L63" s="11"/>
       <c r="M63" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N63" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/Nucleo_DCO接続一覧表.xlsx
+++ b/Nucleo_DCO接続一覧表.xlsx
@@ -17,12 +17,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="188">
   <si>
     <t>Pin#</t>
     <phoneticPr fontId="1"/>
@@ -474,14 +474,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>BBoard</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BBoard</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>OUT</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -529,14 +521,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ADC11</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ADC12</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>SW2</t>
   </si>
   <si>
@@ -658,10 +642,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2018.09.15</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ROTENCs</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -711,6 +691,70 @@
   </si>
   <si>
     <t>RE6B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LEDs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LED1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LED2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LED3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LED4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LED5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2018.09.20</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GND</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BBoard1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BBoard1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BBoard2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GND</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>+9V</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BBoard2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Div Voltage</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -865,7 +909,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -939,6 +983,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1050,11 +1097,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1194496544"/>
-        <c:axId val="1194492736"/>
+        <c:axId val="-1150923344"/>
+        <c:axId val="-1150921712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1194496544"/>
+        <c:axId val="-1150923344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1096,7 +1143,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1194492736"/>
+        <c:crossAx val="-1150921712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1104,7 +1151,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1194492736"/>
+        <c:axId val="-1150921712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1155,7 +1202,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1194496544"/>
+        <c:crossAx val="-1150923344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2072,8 +2119,8 @@
   </sheetPr>
   <dimension ref="A1:T63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection sqref="A1:N63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2097,7 +2144,7 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.15">
@@ -2155,12 +2202,12 @@
       <c r="J7" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="L7" s="3"/>
+      <c r="L7" s="11"/>
       <c r="M7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="N7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.15">
@@ -2178,12 +2225,12 @@
         <v>13</v>
       </c>
       <c r="K8" s="15"/>
-      <c r="L8" s="23"/>
+      <c r="L8" s="19"/>
       <c r="M8" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="N8" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.15">
@@ -2201,12 +2248,12 @@
       <c r="J9" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="L9" s="8"/>
+      <c r="L9" s="3"/>
       <c r="M9" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="N9" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.15">
@@ -2218,7 +2265,7 @@
       </c>
       <c r="E10" s="4"/>
       <c r="F10" t="s">
-        <v>111</v>
+        <v>181</v>
       </c>
       <c r="G10" t="s">
         <v>109</v>
@@ -2229,12 +2276,12 @@
       <c r="J10" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="24"/>
+      <c r="L10" s="23"/>
       <c r="M10" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="N10" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.15">
@@ -2251,12 +2298,12 @@
       <c r="J11" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="L11" s="9"/>
+      <c r="L11" s="8"/>
       <c r="M11" t="s">
+        <v>159</v>
+      </c>
+      <c r="N11" t="s">
         <v>164</v>
-      </c>
-      <c r="N11" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.15">
@@ -2266,9 +2313,9 @@
       <c r="C12" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="17"/>
+      <c r="E12" s="6"/>
       <c r="F12" t="s">
-        <v>112</v>
+        <v>182</v>
       </c>
       <c r="G12" t="s">
         <v>110</v>
@@ -2279,12 +2326,12 @@
       <c r="J12" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="L12" s="9"/>
+      <c r="L12" s="6"/>
       <c r="M12" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="N12" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.15">
@@ -2294,19 +2341,25 @@
       <c r="C13" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="9"/>
+      <c r="E13" s="6"/>
+      <c r="F13" t="s">
+        <v>183</v>
+      </c>
+      <c r="G13" t="s">
+        <v>184</v>
+      </c>
       <c r="I13">
         <v>14</v>
       </c>
       <c r="J13" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="L13" s="9"/>
+      <c r="L13" s="5"/>
       <c r="M13" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="N13" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.15">
@@ -2316,19 +2369,25 @@
       <c r="C14" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="9"/>
+      <c r="E14" s="4"/>
+      <c r="F14" t="s">
+        <v>183</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>185</v>
+      </c>
       <c r="I14">
         <v>16</v>
       </c>
       <c r="J14" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="L14" s="9"/>
+      <c r="L14" s="7"/>
       <c r="M14" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="N14" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="Q14" s="1"/>
       <c r="T14" s="1"/>
@@ -2377,14 +2436,14 @@
         <v>28</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E17" s="11"/>
       <c r="F17" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G17" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I17">
         <v>2</v>
@@ -2392,12 +2451,12 @@
       <c r="J17" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="L17" s="9"/>
+      <c r="L17" s="25"/>
       <c r="M17" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="N17" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.15">
@@ -2408,14 +2467,14 @@
         <v>29</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E18" s="19"/>
       <c r="F18" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G18" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I18">
         <v>4</v>
@@ -2423,12 +2482,12 @@
       <c r="J18" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="L18" s="9"/>
+      <c r="L18" s="11"/>
       <c r="M18" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="N18" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.15">
@@ -2439,14 +2498,14 @@
         <v>30</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G19" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I19">
         <v>6</v>
@@ -2455,12 +2514,12 @@
         <v>45</v>
       </c>
       <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
+      <c r="L19" s="19"/>
       <c r="M19" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="N19" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.15">
@@ -2471,14 +2530,14 @@
         <v>31</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I20">
         <v>8</v>
@@ -2486,12 +2545,12 @@
       <c r="J20" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="L20" s="9"/>
+      <c r="L20" s="3"/>
       <c r="M20" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="N20" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.15">
@@ -2502,14 +2561,14 @@
         <v>32</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G21" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I21">
         <v>10</v>
@@ -2518,6 +2577,12 @@
         <v>47</v>
       </c>
       <c r="L21" s="9"/>
+      <c r="M21" t="s">
+        <v>159</v>
+      </c>
+      <c r="N21" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B22">
@@ -2527,14 +2592,14 @@
         <v>33</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G22" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I22">
         <v>12</v>
@@ -2542,7 +2607,13 @@
       <c r="J22" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="L22" s="9"/>
+      <c r="L22" s="20"/>
+      <c r="M22" t="s">
+        <v>159</v>
+      </c>
+      <c r="N22" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B23">
@@ -2640,10 +2711,10 @@
       </c>
       <c r="L28" s="7"/>
       <c r="M28" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="N28" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.15">
@@ -2662,10 +2733,10 @@
       </c>
       <c r="L29" s="24"/>
       <c r="M29" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="N29" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.15">
@@ -2684,10 +2755,10 @@
       </c>
       <c r="L30" s="20"/>
       <c r="M30" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="N30" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.15">
@@ -2750,7 +2821,13 @@
       <c r="C35" t="s">
         <v>60</v>
       </c>
-      <c r="E35" s="9"/>
+      <c r="E35" s="3"/>
+      <c r="F35" t="s">
+        <v>172</v>
+      </c>
+      <c r="G35" t="s">
+        <v>173</v>
+      </c>
       <c r="I35">
         <v>2</v>
       </c>
@@ -2758,7 +2835,7 @@
         <v>66</v>
       </c>
       <c r="K35" s="9" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="L35" s="2"/>
       <c r="M35" t="s">
@@ -2776,7 +2853,13 @@
         <v>16</v>
       </c>
       <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
+      <c r="E36" s="23"/>
+      <c r="F36" t="s">
+        <v>172</v>
+      </c>
+      <c r="G36" t="s">
+        <v>174</v>
+      </c>
       <c r="I36">
         <v>4</v>
       </c>
@@ -2784,7 +2867,7 @@
         <v>67</v>
       </c>
       <c r="K36" s="9" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="L36" s="3"/>
       <c r="M36" t="s">
@@ -2801,7 +2884,13 @@
       <c r="C37" t="s">
         <v>61</v>
       </c>
-      <c r="E37" s="9"/>
+      <c r="E37" s="8"/>
+      <c r="F37" t="s">
+        <v>172</v>
+      </c>
+      <c r="G37" t="s">
+        <v>175</v>
+      </c>
       <c r="I37">
         <v>6</v>
       </c>
@@ -2818,7 +2907,13 @@
       <c r="C38" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E38" s="9"/>
+      <c r="E38" s="11"/>
+      <c r="F38" t="s">
+        <v>172</v>
+      </c>
+      <c r="G38" t="s">
+        <v>176</v>
+      </c>
       <c r="I38">
         <v>8</v>
       </c>
@@ -2834,7 +2929,13 @@
       <c r="C39" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E39" s="9"/>
+      <c r="E39" s="4"/>
+      <c r="F39" t="s">
+        <v>172</v>
+      </c>
+      <c r="G39" t="s">
+        <v>177</v>
+      </c>
       <c r="I39">
         <v>10</v>
       </c>
@@ -2842,7 +2943,7 @@
         <v>70</v>
       </c>
       <c r="K39" s="9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="L39" s="9"/>
     </row>
@@ -2861,7 +2962,7 @@
         <v>71</v>
       </c>
       <c r="K40" s="9" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="L40" s="9"/>
     </row>
@@ -2880,7 +2981,7 @@
         <v>35</v>
       </c>
       <c r="K41" s="9" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="L41" s="9"/>
     </row>
@@ -2899,7 +3000,7 @@
         <v>72</v>
       </c>
       <c r="K42" s="9" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="L42" s="9"/>
     </row>
@@ -2912,7 +3013,7 @@
       </c>
       <c r="E43" s="3"/>
       <c r="F43" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I43">
         <v>18</v>
@@ -2921,7 +3022,7 @@
         <v>73</v>
       </c>
       <c r="K43" s="9" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="L43" s="9"/>
     </row>
@@ -2940,7 +3041,7 @@
         <v>74</v>
       </c>
       <c r="K44" s="9" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="L44" s="9"/>
     </row>
@@ -2995,7 +3096,7 @@
         <v>89</v>
       </c>
       <c r="K47" s="9" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L47" s="9"/>
     </row>
@@ -3015,7 +3116,7 @@
         <v>90</v>
       </c>
       <c r="K48" s="9" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L48" s="9"/>
     </row>
@@ -3034,14 +3135,14 @@
         <v>91</v>
       </c>
       <c r="K49" s="9" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="L49" s="23"/>
       <c r="M49" t="s">
+        <v>112</v>
+      </c>
+      <c r="N49" t="s">
         <v>114</v>
-      </c>
-      <c r="N49" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="50" spans="2:14" x14ac:dyDescent="0.15">
@@ -3053,10 +3154,10 @@
       </c>
       <c r="E50" s="3"/>
       <c r="F50" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="G50" t="s">
-        <v>126</v>
+        <v>187</v>
       </c>
       <c r="I50">
         <v>8</v>
@@ -3065,14 +3166,14 @@
         <v>92</v>
       </c>
       <c r="K50" s="9" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="L50" s="3"/>
       <c r="M50" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N50" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="51" spans="2:14" x14ac:dyDescent="0.15">
@@ -3082,13 +3183,7 @@
       <c r="C51" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="E51" s="2"/>
-      <c r="F51" t="s">
-        <v>161</v>
-      </c>
-      <c r="G51" t="s">
-        <v>127</v>
-      </c>
+      <c r="E51" s="9"/>
       <c r="I51">
         <v>10</v>
       </c>
@@ -3096,7 +3191,7 @@
         <v>93</v>
       </c>
       <c r="K51" s="9" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="L51" s="9"/>
     </row>
@@ -3115,7 +3210,7 @@
         <v>94</v>
       </c>
       <c r="K52" s="9" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="L52" s="9"/>
     </row>
@@ -3134,7 +3229,7 @@
         <v>95</v>
       </c>
       <c r="K53" s="9" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="L53" s="9"/>
     </row>
@@ -3153,7 +3248,7 @@
         <v>96</v>
       </c>
       <c r="K54" s="9" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="55" spans="2:14" x14ac:dyDescent="0.15">
@@ -3172,10 +3267,10 @@
       </c>
       <c r="L55" s="5"/>
       <c r="M55" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="N55" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56" spans="2:14" x14ac:dyDescent="0.15">
@@ -3194,10 +3289,10 @@
       </c>
       <c r="L56" s="17"/>
       <c r="M56" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="N56" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="57" spans="2:14" x14ac:dyDescent="0.15">
@@ -3216,10 +3311,10 @@
       </c>
       <c r="L57" s="20"/>
       <c r="M57" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="N57" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="58" spans="2:14" x14ac:dyDescent="0.15">
@@ -3238,7 +3333,7 @@
       </c>
       <c r="L58" s="9"/>
       <c r="M58" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="59" spans="2:14" x14ac:dyDescent="0.15">
@@ -3257,10 +3352,10 @@
       </c>
       <c r="L59" s="8"/>
       <c r="M59" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="N59" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="60" spans="2:14" x14ac:dyDescent="0.15">
@@ -3279,10 +3374,10 @@
       </c>
       <c r="L60" s="2"/>
       <c r="M60" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="N60" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="61" spans="2:14" x14ac:dyDescent="0.15">
@@ -3294,10 +3389,10 @@
       </c>
       <c r="E61" s="5"/>
       <c r="F61" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G61" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="I61">
         <v>30</v>
@@ -3308,10 +3403,10 @@
       <c r="K61" s="15"/>
       <c r="L61" s="18"/>
       <c r="M61" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="N61" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="62" spans="2:14" x14ac:dyDescent="0.15">
@@ -3329,10 +3424,10 @@
       </c>
       <c r="L62" s="4"/>
       <c r="M62" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="N62" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="63" spans="2:14" x14ac:dyDescent="0.15">
@@ -3344,10 +3439,10 @@
       </c>
       <c r="E63" s="21"/>
       <c r="F63" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G63" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="I63">
         <v>34</v>
@@ -3357,15 +3452,14 @@
       </c>
       <c r="L63" s="11"/>
       <c r="M63" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="N63" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <printOptions gridLines="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="94" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/Nucleo_DCO接続一覧表.xlsx
+++ b/Nucleo_DCO接続一覧表.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="177">
   <si>
     <t>Pin#</t>
     <phoneticPr fontId="1"/>
@@ -306,31 +306,359 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>PA5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PA6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PD14</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PD15</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PF12</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PB1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PC2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PF4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PB6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PB2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PD13</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PD12</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PD11</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PE2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PA0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PB0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PE0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PF13</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PE9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RE11</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PF14</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PE13</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PF15</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PG14</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PG9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PE8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PE7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PE10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PG12</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PE14</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PE15</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PB10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PB11</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OLED</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SCL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SDA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3V3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>GND</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>PA5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PA6</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PD14</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PD15</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PF12</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AVDD</t>
+    <t>OUT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Check</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Check1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Check2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ADC1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ADC2</t>
+  </si>
+  <si>
+    <t>ADC3</t>
+  </si>
+  <si>
+    <t>ADC4</t>
+  </si>
+  <si>
+    <t>ADC5</t>
+  </si>
+  <si>
+    <t>ADC6</t>
+  </si>
+  <si>
+    <t>ADC8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ADC9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ADC10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>D15</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D14</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D13</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D12</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D11</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>D7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D0</t>
+  </si>
+  <si>
+    <t>POTs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ADC7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ROTENCs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RE1A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RE1B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RE2A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RE2B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RE3A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RE3B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RE4A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RE4B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RE5A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RE5B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RE6A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RE6B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LEDs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LED1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LED2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LED3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LED4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -338,115 +666,35 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>PB1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PC2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PF4</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PB6</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PB2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PD13</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PD12</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PD11</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PE2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PA0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PB0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PE0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PF13</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PE9</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>RE11</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PF14</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PE13</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PF15</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PG14</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PG9</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PE8</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PE7</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PE10</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PG12</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PE14</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PE15</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PB10</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PB11</t>
+    <t>GND</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>+9V</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Div Voltage</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SWs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SW1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SW2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SW3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SW4</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -454,307 +702,19 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>OLED</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SCL</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SDA</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3V3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>GND</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>OUT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Check</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Check1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Check2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ADC1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ADC2</t>
-  </si>
-  <si>
-    <t>ADC3</t>
-  </si>
-  <si>
-    <t>ADC4</t>
-  </si>
-  <si>
-    <t>ADC5</t>
-  </si>
-  <si>
-    <t>ADC6</t>
-  </si>
-  <si>
-    <t>ADC8</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ADC9</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ADC10</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SW2</t>
-  </si>
-  <si>
-    <t>SW6</t>
-  </si>
-  <si>
-    <t>SW4</t>
-  </si>
-  <si>
-    <t>SW3</t>
-  </si>
-  <si>
-    <t>SW0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SW1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SW5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SW7</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>GND</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SWx</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>A5</t>
-  </si>
-  <si>
-    <t>D15</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D14</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D13</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D12</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D11</t>
-  </si>
-  <si>
-    <t>D10</t>
-  </si>
-  <si>
-    <t>D9</t>
-  </si>
-  <si>
-    <t>D8</t>
-  </si>
-  <si>
-    <t>D7</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D6</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D5</t>
-  </si>
-  <si>
-    <t>D4</t>
-  </si>
-  <si>
-    <t>D3</t>
-  </si>
-  <si>
-    <t>D2</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>D0</t>
-  </si>
-  <si>
-    <t>POTs</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ADC7</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ROTENCs</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>RE1A</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>RE1B</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>RE2A</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>RE2B</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>RE3A</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>RE3B</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>RE4A</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>RE4B</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>RE5A</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>RE5B</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>RE6A</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>RE6B</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>LEDs</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>LED1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>LED2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>LED3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>LED4</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>LED5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2018.09.20</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>GND</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BBoard1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BBoard1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BBoard2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>GND</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>+9V</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BBoard2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Div Voltage</t>
+    <t>PSU</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PSU</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2018.09.23</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PSU</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -788,7 +748,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -857,19 +817,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0070C0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -909,7 +857,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -961,19 +909,10 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -982,10 +921,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1097,11 +1042,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1150923344"/>
-        <c:axId val="-1150921712"/>
+        <c:axId val="-2143602448"/>
+        <c:axId val="-2143599184"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1150923344"/>
+        <c:axId val="-2143602448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1143,7 +1088,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1150921712"/>
+        <c:crossAx val="-2143599184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1151,7 +1096,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1150921712"/>
+        <c:axId val="-2143599184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1202,7 +1147,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1150923344"/>
+        <c:crossAx val="-2143602448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2117,10 +2062,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:T63"/>
+  <dimension ref="A1:AB63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection sqref="A1:N63"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:AB35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2135,36 +2080,108 @@
     <col min="11" max="11" width="4.75" style="9" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="3" customWidth="1"/>
     <col min="14" max="14" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="2.625" customWidth="1"/>
+    <col min="16" max="16" width="5.375" customWidth="1"/>
+    <col min="18" max="18" width="4.75" style="9" customWidth="1"/>
+    <col min="19" max="19" width="3" customWidth="1"/>
+    <col min="21" max="21" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="3.125" customWidth="1"/>
+    <col min="23" max="23" width="4.75" customWidth="1"/>
+    <col min="25" max="25" width="4.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="3" customWidth="1"/>
+    <col min="28" max="28" width="10.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="O1" s="24"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15"/>
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="15"/>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
+        <v>175</v>
+      </c>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15"/>
+      <c r="X2" s="15"/>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="15"/>
+      <c r="AA2" s="15"/>
+      <c r="AB2" s="15"/>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
+      <c r="W3" s="15"/>
+      <c r="X3" s="15"/>
+      <c r="Y3" s="15"/>
+      <c r="Z3" s="15"/>
+      <c r="AA3" s="15"/>
+      <c r="AB3" s="15"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A4" s="13" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="O4" s="24"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="15"/>
+      <c r="W4" s="15"/>
+      <c r="X4" s="15"/>
+      <c r="Y4" s="15"/>
+      <c r="Z4" s="15"/>
+      <c r="AA4" s="15"/>
+      <c r="AB4" s="15"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.15">
       <c r="B5" s="13" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="O5" s="15"/>
+      <c r="P5" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.15">
       <c r="B6" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="22"/>
+      <c r="D6" s="19"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13" t="s">
         <v>9</v>
@@ -2179,7 +2196,7 @@
       <c r="J6" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="22"/>
+      <c r="K6" s="19"/>
       <c r="L6" s="13"/>
       <c r="M6" s="13" t="s">
         <v>9</v>
@@ -2187,8 +2204,38 @@
       <c r="N6" s="13" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="O6" s="15"/>
+      <c r="P6" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="R6" s="19"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="U6" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="X6" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y6" s="19"/>
+      <c r="Z6" s="13"/>
+      <c r="AA6" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB6" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.15">
       <c r="B7">
         <v>1</v>
       </c>
@@ -2204,13 +2251,43 @@
       </c>
       <c r="L7" s="11"/>
       <c r="M7" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="N7" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
+        <v>145</v>
+      </c>
+      <c r="O7" s="15"/>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>60</v>
+      </c>
+      <c r="S7" s="6"/>
+      <c r="T7" t="s">
+        <v>157</v>
+      </c>
+      <c r="U7" t="s">
+        <v>158</v>
+      </c>
+      <c r="W7">
+        <v>2</v>
+      </c>
+      <c r="X7" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y7" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z7" s="4"/>
+      <c r="AA7" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.15">
       <c r="B8">
         <v>3</v>
       </c>
@@ -2225,15 +2302,46 @@
         <v>13</v>
       </c>
       <c r="K8" s="15"/>
-      <c r="L8" s="19"/>
+      <c r="L8" s="17"/>
       <c r="M8" t="s">
+        <v>144</v>
+      </c>
+      <c r="N8" t="s">
+        <v>146</v>
+      </c>
+      <c r="O8" s="15"/>
+      <c r="P8">
+        <v>3</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>16</v>
+      </c>
+      <c r="R8" s="15"/>
+      <c r="S8" s="23"/>
+      <c r="T8" t="s">
+        <v>157</v>
+      </c>
+      <c r="U8" t="s">
         <v>159</v>
       </c>
-      <c r="N8" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="W8">
+        <v>4</v>
+      </c>
+      <c r="X8" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y8" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z8" s="11"/>
+      <c r="AA8" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.15">
       <c r="B9">
         <v>5</v>
       </c>
@@ -2250,13 +2358,35 @@
       </c>
       <c r="L9" s="3"/>
       <c r="M9" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="N9" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.15">
+        <v>147</v>
+      </c>
+      <c r="O9" s="15"/>
+      <c r="P9">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>61</v>
+      </c>
+      <c r="S9" s="7"/>
+      <c r="T9" t="s">
+        <v>157</v>
+      </c>
+      <c r="U9" t="s">
+        <v>160</v>
+      </c>
+      <c r="W9">
+        <v>6</v>
+      </c>
+      <c r="X9" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y9" s="15"/>
+      <c r="Z9" s="15"/>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.15">
       <c r="B10">
         <v>7</v>
       </c>
@@ -2265,10 +2395,10 @@
       </c>
       <c r="E10" s="4"/>
       <c r="F10" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="G10" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="I10">
         <v>8</v>
@@ -2276,15 +2406,42 @@
       <c r="J10" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="23"/>
+      <c r="L10" s="20"/>
       <c r="M10" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="N10" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.15">
+        <v>148</v>
+      </c>
+      <c r="O10" s="15"/>
+      <c r="P10">
+        <v>7</v>
+      </c>
+      <c r="Q10" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="S10" s="21"/>
+      <c r="T10" t="s">
+        <v>157</v>
+      </c>
+      <c r="U10" t="s">
+        <v>161</v>
+      </c>
+      <c r="W10">
+        <v>8</v>
+      </c>
+      <c r="X10" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z10" s="18"/>
+      <c r="AA10" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.15">
       <c r="B11">
         <v>9</v>
       </c>
@@ -2300,25 +2457,43 @@
       </c>
       <c r="L11" s="8"/>
       <c r="M11" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="N11" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.15">
+        <v>149</v>
+      </c>
+      <c r="O11" s="15"/>
+      <c r="P11">
+        <v>9</v>
+      </c>
+      <c r="Q11" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="S11" s="9"/>
+      <c r="W11">
+        <v>10</v>
+      </c>
+      <c r="X11" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y11" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z11" s="9"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.15">
       <c r="B12">
         <v>11</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="6"/>
+      <c r="E12" s="18"/>
       <c r="F12" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="G12" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I12">
         <v>12</v>
@@ -2328,25 +2503,43 @@
       </c>
       <c r="L12" s="6"/>
       <c r="M12" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="N12" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.15">
+        <v>150</v>
+      </c>
+      <c r="O12" s="15"/>
+      <c r="P12">
+        <v>11</v>
+      </c>
+      <c r="Q12" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="S12" s="9"/>
+      <c r="W12">
+        <v>12</v>
+      </c>
+      <c r="X12" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y12" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z12" s="9"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.15">
       <c r="B13">
         <v>13</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="6"/>
+      <c r="E13" s="18"/>
       <c r="F13" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="G13" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="I13">
         <v>14</v>
@@ -2356,13 +2549,31 @@
       </c>
       <c r="L13" s="5"/>
       <c r="M13" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="N13" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.15">
+        <v>151</v>
+      </c>
+      <c r="O13" s="15"/>
+      <c r="P13">
+        <v>13</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>63</v>
+      </c>
+      <c r="S13" s="9"/>
+      <c r="W13">
+        <v>14</v>
+      </c>
+      <c r="X13" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y13" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z13" s="9"/>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.15">
       <c r="B14">
         <v>15</v>
       </c>
@@ -2371,10 +2582,10 @@
       </c>
       <c r="E14" s="4"/>
       <c r="F14" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="I14">
         <v>16</v>
@@ -2384,27 +2595,64 @@
       </c>
       <c r="L14" s="7"/>
       <c r="M14" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="N14" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q14" s="1"/>
-      <c r="T14" s="1"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.15">
+        <v>152</v>
+      </c>
+      <c r="O14" s="15"/>
+      <c r="P14">
+        <v>15</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>64</v>
+      </c>
+      <c r="S14" s="9"/>
+      <c r="W14">
+        <v>16</v>
+      </c>
+      <c r="X14" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y14" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z14" s="9"/>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.15">
       <c r="B15" s="13" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="O15" s="15"/>
+      <c r="P15">
+        <v>17</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>65</v>
+      </c>
+      <c r="S15" s="3"/>
+      <c r="T15" t="s">
+        <v>107</v>
+      </c>
+      <c r="W15">
+        <v>18</v>
+      </c>
+      <c r="X15" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y15" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z15" s="9"/>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.15">
       <c r="B16" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="22"/>
+      <c r="D16" s="19"/>
       <c r="E16" s="13"/>
       <c r="F16" s="13" t="s">
         <v>9</v>
@@ -2419,7 +2667,7 @@
       <c r="J16" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="K16" s="22"/>
+      <c r="K16" s="19"/>
       <c r="L16" s="13"/>
       <c r="M16" s="13" t="s">
         <v>9</v>
@@ -2427,8 +2675,26 @@
       <c r="N16" s="13" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="O16" s="15"/>
+      <c r="P16">
+        <v>19</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>14</v>
+      </c>
+      <c r="S16" s="9"/>
+      <c r="W16">
+        <v>20</v>
+      </c>
+      <c r="X16" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y16" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z16" s="9"/>
+    </row>
+    <row r="17" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B17">
         <v>1</v>
       </c>
@@ -2436,14 +2702,14 @@
         <v>28</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="E17" s="11"/>
       <c r="F17" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="G17" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="I17">
         <v>2</v>
@@ -2451,15 +2717,19 @@
       <c r="J17" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="L17" s="25"/>
+      <c r="L17" s="22"/>
       <c r="M17" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="N17" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.15">
+        <v>153</v>
+      </c>
+      <c r="O17" s="15"/>
+      <c r="P17" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B18">
         <v>3</v>
       </c>
@@ -2467,14 +2737,14 @@
         <v>29</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="E18" s="19"/>
+        <v>121</v>
+      </c>
+      <c r="E18" s="17"/>
       <c r="F18" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="G18" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="I18">
         <v>4</v>
@@ -2484,13 +2754,43 @@
       </c>
       <c r="L18" s="11"/>
       <c r="M18" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="N18" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.15">
+        <v>154</v>
+      </c>
+      <c r="O18" s="15"/>
+      <c r="P18" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="R18" s="19"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="U18" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="V18" s="13"/>
+      <c r="W18" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="X18" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y18" s="19"/>
+      <c r="Z18" s="13"/>
+      <c r="AA18" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB18" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B19">
         <v>5</v>
       </c>
@@ -2498,14 +2798,14 @@
         <v>30</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="G19" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="I19">
         <v>6</v>
@@ -2514,15 +2814,33 @@
         <v>45</v>
       </c>
       <c r="K19" s="15"/>
-      <c r="L19" s="19"/>
+      <c r="L19" s="17"/>
       <c r="M19" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="N19" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.15">
+        <v>155</v>
+      </c>
+      <c r="O19" s="15"/>
+      <c r="P19">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="S19" s="9"/>
+      <c r="W19">
+        <v>2</v>
+      </c>
+      <c r="X19" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y19" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z19" s="9"/>
+    </row>
+    <row r="20" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B20">
         <v>7</v>
       </c>
@@ -2530,14 +2848,14 @@
         <v>31</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="G20" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="I20">
         <v>8</v>
@@ -2547,13 +2865,32 @@
       </c>
       <c r="L20" s="3"/>
       <c r="M20" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="N20" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.15">
+        <v>156</v>
+      </c>
+      <c r="O20" s="15"/>
+      <c r="P20">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="R20" s="15"/>
+      <c r="S20" s="15"/>
+      <c r="W20">
+        <v>4</v>
+      </c>
+      <c r="X20" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y20" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z20" s="9"/>
+    </row>
+    <row r="21" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B21">
         <v>9</v>
       </c>
@@ -2561,14 +2898,14 @@
         <v>32</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="G21" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="I21">
         <v>10</v>
@@ -2578,13 +2915,37 @@
       </c>
       <c r="L21" s="9"/>
       <c r="M21" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="N21" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.15">
+        <v>162</v>
+      </c>
+      <c r="O21" s="15"/>
+      <c r="P21">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21" s="9"/>
+      <c r="W21">
+        <v>6</v>
+      </c>
+      <c r="X21" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y21" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z21" s="20"/>
+      <c r="AA21" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B22">
         <v>11</v>
       </c>
@@ -2592,14 +2953,14 @@
         <v>33</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="G22" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="I22">
         <v>12</v>
@@ -2607,15 +2968,45 @@
       <c r="J22" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="L22" s="20"/>
+      <c r="L22" s="18"/>
       <c r="M22" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="N22" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.15">
+        <v>163</v>
+      </c>
+      <c r="O22" s="15"/>
+      <c r="P22">
+        <v>7</v>
+      </c>
+      <c r="Q22" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="S22" s="3"/>
+      <c r="T22" t="s">
+        <v>176</v>
+      </c>
+      <c r="U22" t="s">
+        <v>166</v>
+      </c>
+      <c r="W22">
+        <v>8</v>
+      </c>
+      <c r="X22" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y22" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z22" s="3"/>
+      <c r="AA22" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B23">
         <v>13</v>
       </c>
@@ -2630,8 +3021,26 @@
         <v>49</v>
       </c>
       <c r="L23" s="9"/>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="O23" s="15"/>
+      <c r="P23">
+        <v>9</v>
+      </c>
+      <c r="Q23" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="S23" s="9"/>
+      <c r="W23">
+        <v>10</v>
+      </c>
+      <c r="X23" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y23" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z23" s="9"/>
+    </row>
+    <row r="24" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B24">
         <v>15</v>
       </c>
@@ -2646,8 +3055,26 @@
         <v>50</v>
       </c>
       <c r="L24" s="9"/>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="O24" s="15"/>
+      <c r="P24">
+        <v>11</v>
+      </c>
+      <c r="Q24" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="S24" s="9"/>
+      <c r="W24">
+        <v>12</v>
+      </c>
+      <c r="X24" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y24" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z24" s="9"/>
+    </row>
+    <row r="25" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B25">
         <v>17</v>
       </c>
@@ -2662,8 +3089,26 @@
         <v>51</v>
       </c>
       <c r="L25" s="9"/>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="O25" s="15"/>
+      <c r="P25">
+        <v>13</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>77</v>
+      </c>
+      <c r="S25" s="9"/>
+      <c r="W25">
+        <v>14</v>
+      </c>
+      <c r="X25" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y25" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z25" s="9"/>
+    </row>
+    <row r="26" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B26">
         <v>19</v>
       </c>
@@ -2678,8 +3123,25 @@
         <v>52</v>
       </c>
       <c r="L26" s="9"/>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="O26" s="15"/>
+      <c r="P26">
+        <v>15</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>78</v>
+      </c>
+      <c r="S26" s="9"/>
+      <c r="W26">
+        <v>16</v>
+      </c>
+      <c r="X26" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y26" s="9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="27" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B27">
         <v>21</v>
       </c>
@@ -2694,8 +3156,29 @@
         <v>53</v>
       </c>
       <c r="L27" s="9"/>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="O27" s="15"/>
+      <c r="P27">
+        <v>17</v>
+      </c>
+      <c r="Q27" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="S27" s="9"/>
+      <c r="W27">
+        <v>18</v>
+      </c>
+      <c r="X27" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z27" s="4"/>
+      <c r="AA27" t="s">
+        <v>167</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="28" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B28">
         <v>23</v>
       </c>
@@ -2711,13 +3194,34 @@
       </c>
       <c r="L28" s="7"/>
       <c r="M28" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="N28" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.15">
+        <v>117</v>
+      </c>
+      <c r="O28" s="15"/>
+      <c r="P28">
+        <v>19</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>79</v>
+      </c>
+      <c r="S28" s="9"/>
+      <c r="W28">
+        <v>20</v>
+      </c>
+      <c r="X28" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z28" s="3"/>
+      <c r="AA28" t="s">
+        <v>167</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="29" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B29">
         <v>25</v>
       </c>
@@ -2731,15 +3235,36 @@
       <c r="J29" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="L29" s="24"/>
+      <c r="L29" s="21"/>
       <c r="M29" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="N29" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.15">
+        <v>118</v>
+      </c>
+      <c r="O29" s="15"/>
+      <c r="P29">
+        <v>21</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>80</v>
+      </c>
+      <c r="S29" s="9"/>
+      <c r="W29">
+        <v>22</v>
+      </c>
+      <c r="X29" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z29" s="11"/>
+      <c r="AA29" t="s">
+        <v>167</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B30">
         <v>27</v>
       </c>
@@ -2753,15 +3278,36 @@
       <c r="J30" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="L30" s="20"/>
+      <c r="L30" s="18"/>
       <c r="M30" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="N30" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.15">
+        <v>119</v>
+      </c>
+      <c r="O30" s="15"/>
+      <c r="P30">
+        <v>23</v>
+      </c>
+      <c r="Q30" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="S30" s="9"/>
+      <c r="W30">
+        <v>24</v>
+      </c>
+      <c r="X30" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z30" s="2"/>
+      <c r="AA30" t="s">
+        <v>167</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="31" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B31">
         <v>29</v>
       </c>
@@ -2777,691 +3323,979 @@
       </c>
       <c r="K31" s="15"/>
       <c r="L31" s="15"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B33" s="13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B34" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D34" s="22"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G34" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="J34" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="K34" s="22"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="N34" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B35">
-        <v>1</v>
-      </c>
-      <c r="C35" t="s">
-        <v>60</v>
-      </c>
-      <c r="E35" s="3"/>
-      <c r="F35" t="s">
-        <v>172</v>
-      </c>
-      <c r="G35" t="s">
-        <v>173</v>
-      </c>
-      <c r="I35">
-        <v>2</v>
-      </c>
-      <c r="J35" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="K35" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="L35" s="2"/>
-      <c r="M35" t="s">
-        <v>105</v>
-      </c>
-      <c r="N35" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B36">
-        <v>3</v>
-      </c>
-      <c r="C36" t="s">
-        <v>16</v>
-      </c>
+      <c r="O31" s="15"/>
+      <c r="P31">
+        <v>25</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>82</v>
+      </c>
+      <c r="S31" s="9"/>
+      <c r="W31">
+        <v>26</v>
+      </c>
+      <c r="X31" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z31" s="8"/>
+      <c r="AA31" t="s">
+        <v>167</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="32" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="O32" s="15"/>
+      <c r="P32">
+        <v>27</v>
+      </c>
+      <c r="Q32" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="S32" s="9"/>
+      <c r="W32">
+        <v>28</v>
+      </c>
+      <c r="X32" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z32" s="9"/>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A33" s="15"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="15"/>
+      <c r="P33">
+        <v>29</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>83</v>
+      </c>
+      <c r="S33" s="5"/>
+      <c r="T33" t="s">
+        <v>142</v>
+      </c>
+      <c r="U33" t="s">
+        <v>143</v>
+      </c>
+      <c r="W33">
+        <v>30</v>
+      </c>
+      <c r="X33" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y33" s="15"/>
+      <c r="Z33" s="15"/>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A34" s="15"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="24"/>
+      <c r="N34" s="24"/>
+      <c r="O34" s="15"/>
+      <c r="P34">
+        <v>31</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>84</v>
+      </c>
+      <c r="W34">
+        <v>32</v>
+      </c>
+      <c r="X34" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z34" s="9"/>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A35" s="15"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="15"/>
+      <c r="O35" s="15"/>
+      <c r="P35">
+        <v>33</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>85</v>
+      </c>
+      <c r="S35" s="9"/>
+      <c r="W35">
+        <v>34</v>
+      </c>
+      <c r="X35" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z35" s="9"/>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A36" s="15"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
       <c r="D36" s="15"/>
-      <c r="E36" s="23"/>
-      <c r="F36" t="s">
-        <v>172</v>
-      </c>
-      <c r="G36" t="s">
-        <v>174</v>
-      </c>
-      <c r="I36">
-        <v>4</v>
-      </c>
-      <c r="J36" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="K36" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="L36" s="3"/>
-      <c r="M36" t="s">
-        <v>106</v>
-      </c>
-      <c r="N36" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B37">
-        <v>5</v>
-      </c>
-      <c r="C37" t="s">
-        <v>61</v>
-      </c>
-      <c r="E37" s="8"/>
-      <c r="F37" t="s">
-        <v>172</v>
-      </c>
-      <c r="G37" t="s">
-        <v>175</v>
-      </c>
-      <c r="I37">
-        <v>6</v>
-      </c>
-      <c r="J37" s="16" t="s">
-        <v>68</v>
-      </c>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="15"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="15"/>
+      <c r="N36" s="15"/>
+      <c r="O36" s="15"/>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A37" s="15"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
       <c r="K37" s="15"/>
       <c r="L37" s="15"/>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B38">
-        <v>7</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E38" s="11"/>
-      <c r="F38" t="s">
-        <v>172</v>
-      </c>
-      <c r="G38" t="s">
-        <v>176</v>
-      </c>
-      <c r="I38">
-        <v>8</v>
-      </c>
-      <c r="J38" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="L38" s="9"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B39">
-        <v>9</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E39" s="4"/>
-      <c r="F39" t="s">
-        <v>172</v>
-      </c>
-      <c r="G39" t="s">
-        <v>177</v>
-      </c>
-      <c r="I39">
-        <v>10</v>
-      </c>
-      <c r="J39" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="K39" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="L39" s="9"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B40">
-        <v>11</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E40" s="9"/>
-      <c r="I40">
-        <v>12</v>
-      </c>
-      <c r="J40" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="K40" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="L40" s="9"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B41">
-        <v>13</v>
-      </c>
-      <c r="C41" t="s">
-        <v>63</v>
-      </c>
-      <c r="E41" s="9"/>
-      <c r="I41">
-        <v>14</v>
-      </c>
-      <c r="J41" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="K41" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="L41" s="9"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B42">
-        <v>15</v>
-      </c>
-      <c r="C42" t="s">
-        <v>64</v>
-      </c>
-      <c r="E42" s="9"/>
-      <c r="I42">
-        <v>16</v>
-      </c>
-      <c r="J42" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="K42" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="L42" s="9"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B43">
-        <v>17</v>
-      </c>
-      <c r="C43" t="s">
-        <v>65</v>
-      </c>
-      <c r="E43" s="3"/>
-      <c r="F43" t="s">
-        <v>111</v>
-      </c>
-      <c r="I43">
-        <v>18</v>
-      </c>
-      <c r="J43" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="K43" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="L43" s="9"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B44">
-        <v>19</v>
-      </c>
-      <c r="C44" t="s">
-        <v>14</v>
-      </c>
-      <c r="E44" s="9"/>
-      <c r="I44">
-        <v>20</v>
-      </c>
-      <c r="J44" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="K44" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="L44" s="9"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B45" s="13" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B46" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C46" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D46" s="22"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G46" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="H46" s="13"/>
-      <c r="I46" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="J46" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="K46" s="22"/>
-      <c r="L46" s="13"/>
-      <c r="M46" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="N46" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B47">
-        <v>1</v>
-      </c>
-      <c r="C47" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="E47" s="9"/>
-      <c r="I47">
-        <v>2</v>
-      </c>
-      <c r="J47" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="K47" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="L47" s="9"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B48">
-        <v>3</v>
-      </c>
-      <c r="C48" s="16" t="s">
-        <v>17</v>
-      </c>
+      <c r="M37" s="15"/>
+      <c r="N37" s="15"/>
+      <c r="O37" s="15"/>
+      <c r="P37" s="15"/>
+      <c r="Q37" s="15"/>
+      <c r="R37" s="15"/>
+      <c r="S37" s="15"/>
+      <c r="T37" s="15"/>
+      <c r="U37" s="15"/>
+      <c r="V37" s="15"/>
+      <c r="W37" s="15"/>
+      <c r="X37" s="15"/>
+      <c r="Y37" s="15"/>
+      <c r="Z37" s="15"/>
+      <c r="AA37" s="15"/>
+      <c r="AB37" s="15"/>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A38" s="15"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="15"/>
+      <c r="L38" s="15"/>
+      <c r="M38" s="15"/>
+      <c r="N38" s="15"/>
+      <c r="O38" s="15"/>
+      <c r="P38" s="15"/>
+      <c r="Q38" s="15"/>
+      <c r="R38" s="15"/>
+      <c r="S38" s="15"/>
+      <c r="T38" s="15"/>
+      <c r="U38" s="15"/>
+      <c r="V38" s="15"/>
+      <c r="W38" s="15"/>
+      <c r="X38" s="15"/>
+      <c r="Y38" s="15"/>
+      <c r="Z38" s="15"/>
+      <c r="AA38" s="15"/>
+      <c r="AB38" s="15"/>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A39" s="15"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="15"/>
+      <c r="L39" s="15"/>
+      <c r="M39" s="15"/>
+      <c r="N39" s="15"/>
+      <c r="O39" s="15"/>
+      <c r="P39" s="15"/>
+      <c r="Q39" s="15"/>
+      <c r="R39" s="15"/>
+      <c r="S39" s="15"/>
+      <c r="T39" s="15"/>
+      <c r="U39" s="15"/>
+      <c r="V39" s="15"/>
+      <c r="W39" s="15"/>
+      <c r="X39" s="15"/>
+      <c r="Y39" s="15"/>
+      <c r="Z39" s="15"/>
+      <c r="AA39" s="15"/>
+      <c r="AB39" s="15"/>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A40" s="15"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="15"/>
+      <c r="L40" s="15"/>
+      <c r="M40" s="15"/>
+      <c r="N40" s="15"/>
+      <c r="O40" s="15"/>
+      <c r="P40" s="15"/>
+      <c r="Q40" s="15"/>
+      <c r="R40" s="15"/>
+      <c r="S40" s="15"/>
+      <c r="T40" s="15"/>
+      <c r="U40" s="15"/>
+      <c r="V40" s="15"/>
+      <c r="W40" s="15"/>
+      <c r="X40" s="15"/>
+      <c r="Y40" s="15"/>
+      <c r="Z40" s="15"/>
+      <c r="AA40" s="15"/>
+      <c r="AB40" s="15"/>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A41" s="15"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="15"/>
+      <c r="L41" s="15"/>
+      <c r="M41" s="15"/>
+      <c r="N41" s="15"/>
+      <c r="O41" s="15"/>
+      <c r="P41" s="15"/>
+      <c r="Q41" s="15"/>
+      <c r="R41" s="15"/>
+      <c r="S41" s="15"/>
+      <c r="T41" s="15"/>
+      <c r="U41" s="15"/>
+      <c r="V41" s="15"/>
+      <c r="W41" s="15"/>
+      <c r="X41" s="15"/>
+      <c r="Y41" s="15"/>
+      <c r="Z41" s="15"/>
+      <c r="AA41" s="15"/>
+      <c r="AB41" s="15"/>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A42" s="15"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15"/>
+      <c r="K42" s="15"/>
+      <c r="L42" s="15"/>
+      <c r="M42" s="15"/>
+      <c r="N42" s="15"/>
+      <c r="O42" s="15"/>
+      <c r="P42" s="15"/>
+      <c r="Q42" s="15"/>
+      <c r="R42" s="15"/>
+      <c r="S42" s="15"/>
+      <c r="T42" s="15"/>
+      <c r="U42" s="15"/>
+      <c r="V42" s="15"/>
+      <c r="W42" s="15"/>
+      <c r="X42" s="15"/>
+      <c r="Y42" s="15"/>
+      <c r="Z42" s="15"/>
+      <c r="AA42" s="15"/>
+      <c r="AB42" s="15"/>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A43" s="15"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="15"/>
+      <c r="K43" s="15"/>
+      <c r="L43" s="15"/>
+      <c r="M43" s="15"/>
+      <c r="N43" s="15"/>
+      <c r="O43" s="15"/>
+      <c r="P43" s="15"/>
+      <c r="Q43" s="15"/>
+      <c r="R43" s="15"/>
+      <c r="S43" s="15"/>
+      <c r="T43" s="15"/>
+      <c r="U43" s="15"/>
+      <c r="V43" s="15"/>
+      <c r="W43" s="15"/>
+      <c r="X43" s="15"/>
+      <c r="Y43" s="15"/>
+      <c r="Z43" s="15"/>
+      <c r="AA43" s="15"/>
+      <c r="AB43" s="15"/>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A44" s="15"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="15"/>
+      <c r="K44" s="15"/>
+      <c r="L44" s="15"/>
+      <c r="M44" s="15"/>
+      <c r="N44" s="15"/>
+      <c r="O44" s="15"/>
+      <c r="P44" s="15"/>
+      <c r="Q44" s="15"/>
+      <c r="R44" s="15"/>
+      <c r="S44" s="15"/>
+      <c r="T44" s="15"/>
+      <c r="U44" s="15"/>
+      <c r="V44" s="15"/>
+      <c r="W44" s="15"/>
+      <c r="X44" s="15"/>
+      <c r="Y44" s="15"/>
+      <c r="Z44" s="15"/>
+      <c r="AA44" s="15"/>
+      <c r="AB44" s="15"/>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A45" s="15"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="15"/>
+      <c r="K45" s="15"/>
+      <c r="L45" s="15"/>
+      <c r="M45" s="15"/>
+      <c r="N45" s="15"/>
+      <c r="O45" s="15"/>
+      <c r="P45" s="24"/>
+      <c r="Q45" s="15"/>
+      <c r="R45" s="15"/>
+      <c r="S45" s="15"/>
+      <c r="T45" s="15"/>
+      <c r="U45" s="15"/>
+      <c r="V45" s="15"/>
+      <c r="W45" s="15"/>
+      <c r="X45" s="15"/>
+      <c r="Y45" s="15"/>
+      <c r="Z45" s="15"/>
+      <c r="AA45" s="15"/>
+      <c r="AB45" s="15"/>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A46" s="15"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="24"/>
+      <c r="J46" s="24"/>
+      <c r="K46" s="24"/>
+      <c r="L46" s="24"/>
+      <c r="M46" s="24"/>
+      <c r="N46" s="24"/>
+      <c r="O46" s="15"/>
+      <c r="P46" s="24"/>
+      <c r="Q46" s="24"/>
+      <c r="R46" s="24"/>
+      <c r="S46" s="24"/>
+      <c r="T46" s="24"/>
+      <c r="U46" s="24"/>
+      <c r="V46" s="24"/>
+      <c r="W46" s="24"/>
+      <c r="X46" s="24"/>
+      <c r="Y46" s="24"/>
+      <c r="Z46" s="24"/>
+      <c r="AA46" s="24"/>
+      <c r="AB46" s="24"/>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A47" s="15"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="15"/>
+      <c r="K47" s="15"/>
+      <c r="L47" s="15"/>
+      <c r="M47" s="15"/>
+      <c r="N47" s="15"/>
+      <c r="O47" s="15"/>
+      <c r="P47" s="15"/>
+      <c r="Q47" s="15"/>
+      <c r="R47" s="15"/>
+      <c r="S47" s="15"/>
+      <c r="T47" s="15"/>
+      <c r="U47" s="15"/>
+      <c r="V47" s="15"/>
+      <c r="W47" s="15"/>
+      <c r="X47" s="15"/>
+      <c r="Y47" s="15"/>
+      <c r="Z47" s="15"/>
+      <c r="AA47" s="15"/>
+      <c r="AB47" s="15"/>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A48" s="15"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="15"/>
       <c r="D48" s="15"/>
       <c r="E48" s="15"/>
-      <c r="I48">
-        <v>4</v>
-      </c>
-      <c r="J48" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="K48" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="L48" s="9"/>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B49">
-        <v>5</v>
-      </c>
-      <c r="C49" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="E49" s="9"/>
-      <c r="I49">
-        <v>6</v>
-      </c>
-      <c r="J49" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="K49" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="L49" s="23"/>
-      <c r="M49" t="s">
-        <v>112</v>
-      </c>
-      <c r="N49" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B50">
-        <v>7</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="E50" s="3"/>
-      <c r="F50" t="s">
-        <v>186</v>
-      </c>
-      <c r="G50" t="s">
-        <v>187</v>
-      </c>
-      <c r="I50">
-        <v>8</v>
-      </c>
-      <c r="J50" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="K50" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="L50" s="3"/>
-      <c r="M50" t="s">
-        <v>112</v>
-      </c>
-      <c r="N50" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B51">
-        <v>9</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E51" s="9"/>
-      <c r="I51">
-        <v>10</v>
-      </c>
-      <c r="J51" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="K51" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="L51" s="9"/>
-    </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B52">
-        <v>11</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="E52" s="9"/>
-      <c r="I52">
-        <v>12</v>
-      </c>
-      <c r="J52" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="K52" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="L52" s="9"/>
-    </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B53">
-        <v>13</v>
-      </c>
-      <c r="C53" t="s">
-        <v>80</v>
-      </c>
-      <c r="E53" s="9"/>
-      <c r="I53">
-        <v>14</v>
-      </c>
-      <c r="J53" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="K53" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="L53" s="9"/>
-    </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B54">
-        <v>15</v>
-      </c>
-      <c r="C54" t="s">
-        <v>81</v>
-      </c>
-      <c r="E54" s="9"/>
-      <c r="I54">
-        <v>16</v>
-      </c>
-      <c r="J54" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="K54" s="9" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B55">
-        <v>17</v>
-      </c>
-      <c r="C55" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="E55" s="9"/>
-      <c r="I55">
-        <v>18</v>
-      </c>
-      <c r="J55" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="L55" s="5"/>
-      <c r="M55" t="s">
-        <v>134</v>
-      </c>
-      <c r="N55" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B56">
-        <v>19</v>
-      </c>
-      <c r="C56" t="s">
-        <v>82</v>
-      </c>
-      <c r="E56" s="9"/>
-      <c r="I56">
-        <v>20</v>
-      </c>
-      <c r="J56" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="L56" s="17"/>
-      <c r="M56" t="s">
-        <v>134</v>
-      </c>
-      <c r="N56" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B57">
-        <v>21</v>
-      </c>
-      <c r="C57" t="s">
-        <v>83</v>
-      </c>
-      <c r="E57" s="9"/>
-      <c r="I57">
-        <v>22</v>
-      </c>
-      <c r="J57" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="L57" s="20"/>
-      <c r="M57" t="s">
-        <v>134</v>
-      </c>
-      <c r="N57" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B58">
-        <v>23</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="E58" s="9"/>
-      <c r="I58">
-        <v>24</v>
-      </c>
-      <c r="J58" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="L58" s="9"/>
-      <c r="M58" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B59">
-        <v>25</v>
-      </c>
-      <c r="C59" t="s">
-        <v>85</v>
-      </c>
-      <c r="E59" s="9"/>
-      <c r="I59">
-        <v>26</v>
-      </c>
-      <c r="J59" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="L59" s="8"/>
-      <c r="M59" t="s">
-        <v>134</v>
-      </c>
-      <c r="N59" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B60">
-        <v>27</v>
-      </c>
-      <c r="C60" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="E60" s="9"/>
-      <c r="I60">
-        <v>28</v>
-      </c>
-      <c r="J60" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="L60" s="2"/>
-      <c r="M60" t="s">
-        <v>134</v>
-      </c>
-      <c r="N60" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B61">
-        <v>29</v>
-      </c>
-      <c r="C61" t="s">
-        <v>86</v>
-      </c>
-      <c r="E61" s="5"/>
-      <c r="F61" t="s">
-        <v>157</v>
-      </c>
-      <c r="G61" t="s">
-        <v>158</v>
-      </c>
-      <c r="I61">
-        <v>30</v>
-      </c>
-      <c r="J61" s="9" t="s">
-        <v>102</v>
-      </c>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="15"/>
+      <c r="K48" s="15"/>
+      <c r="L48" s="15"/>
+      <c r="M48" s="15"/>
+      <c r="N48" s="15"/>
+      <c r="O48" s="15"/>
+      <c r="P48" s="15"/>
+      <c r="Q48" s="15"/>
+      <c r="R48" s="15"/>
+      <c r="S48" s="15"/>
+      <c r="T48" s="15"/>
+      <c r="U48" s="15"/>
+      <c r="V48" s="15"/>
+      <c r="W48" s="15"/>
+      <c r="X48" s="15"/>
+      <c r="Y48" s="15"/>
+      <c r="Z48" s="15"/>
+      <c r="AA48" s="15"/>
+      <c r="AB48" s="15"/>
+    </row>
+    <row r="49" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A49" s="15"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="15"/>
+      <c r="K49" s="15"/>
+      <c r="L49" s="15"/>
+      <c r="M49" s="15"/>
+      <c r="N49" s="15"/>
+      <c r="O49" s="15"/>
+      <c r="P49" s="15"/>
+      <c r="Q49" s="15"/>
+      <c r="R49" s="15"/>
+      <c r="S49" s="15"/>
+      <c r="T49" s="15"/>
+      <c r="U49" s="15"/>
+      <c r="V49" s="15"/>
+      <c r="W49" s="15"/>
+      <c r="X49" s="15"/>
+      <c r="Y49" s="15"/>
+      <c r="Z49" s="15"/>
+      <c r="AA49" s="15"/>
+      <c r="AB49" s="15"/>
+    </row>
+    <row r="50" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A50" s="15"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="15"/>
+      <c r="K50" s="15"/>
+      <c r="L50" s="15"/>
+      <c r="M50" s="15"/>
+      <c r="N50" s="15"/>
+      <c r="O50" s="15"/>
+      <c r="P50" s="15"/>
+      <c r="Q50" s="15"/>
+      <c r="R50" s="15"/>
+      <c r="S50" s="15"/>
+      <c r="T50" s="15"/>
+      <c r="U50" s="15"/>
+      <c r="V50" s="15"/>
+      <c r="W50" s="15"/>
+      <c r="X50" s="15"/>
+      <c r="Y50" s="15"/>
+      <c r="Z50" s="15"/>
+      <c r="AA50" s="15"/>
+      <c r="AB50" s="15"/>
+    </row>
+    <row r="51" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A51" s="15"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="15"/>
+      <c r="K51" s="15"/>
+      <c r="L51" s="15"/>
+      <c r="M51" s="15"/>
+      <c r="N51" s="15"/>
+      <c r="O51" s="15"/>
+      <c r="P51" s="15"/>
+      <c r="Q51" s="15"/>
+      <c r="R51" s="15"/>
+      <c r="S51" s="15"/>
+      <c r="T51" s="15"/>
+      <c r="U51" s="15"/>
+      <c r="V51" s="15"/>
+      <c r="W51" s="15"/>
+      <c r="X51" s="15"/>
+      <c r="Y51" s="15"/>
+      <c r="Z51" s="15"/>
+      <c r="AA51" s="15"/>
+      <c r="AB51" s="15"/>
+    </row>
+    <row r="52" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A52" s="15"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="15"/>
+      <c r="K52" s="15"/>
+      <c r="L52" s="15"/>
+      <c r="M52" s="15"/>
+      <c r="N52" s="15"/>
+      <c r="O52" s="15"/>
+      <c r="P52" s="15"/>
+      <c r="Q52" s="15"/>
+      <c r="R52" s="15"/>
+      <c r="S52" s="15"/>
+      <c r="T52" s="15"/>
+      <c r="U52" s="15"/>
+      <c r="V52" s="15"/>
+      <c r="W52" s="15"/>
+      <c r="X52" s="15"/>
+      <c r="Y52" s="15"/>
+      <c r="Z52" s="15"/>
+      <c r="AA52" s="15"/>
+      <c r="AB52" s="15"/>
+    </row>
+    <row r="53" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A53" s="15"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="15"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="15"/>
+      <c r="K53" s="15"/>
+      <c r="L53" s="15"/>
+      <c r="M53" s="15"/>
+      <c r="N53" s="15"/>
+      <c r="O53" s="15"/>
+      <c r="P53" s="15"/>
+      <c r="Q53" s="15"/>
+      <c r="R53" s="15"/>
+      <c r="S53" s="15"/>
+      <c r="T53" s="15"/>
+      <c r="U53" s="15"/>
+      <c r="V53" s="15"/>
+      <c r="W53" s="15"/>
+      <c r="X53" s="15"/>
+      <c r="Y53" s="15"/>
+      <c r="Z53" s="15"/>
+      <c r="AA53" s="15"/>
+      <c r="AB53" s="15"/>
+    </row>
+    <row r="54" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A54" s="15"/>
+      <c r="B54" s="15"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="15"/>
+      <c r="K54" s="15"/>
+      <c r="L54" s="15"/>
+      <c r="M54" s="15"/>
+      <c r="N54" s="15"/>
+      <c r="O54" s="15"/>
+      <c r="P54" s="15"/>
+      <c r="Q54" s="15"/>
+      <c r="R54" s="15"/>
+      <c r="S54" s="15"/>
+      <c r="T54" s="15"/>
+      <c r="U54" s="15"/>
+      <c r="V54" s="15"/>
+      <c r="W54" s="15"/>
+      <c r="X54" s="15"/>
+      <c r="Y54" s="15"/>
+      <c r="Z54" s="15"/>
+      <c r="AA54" s="15"/>
+      <c r="AB54" s="15"/>
+    </row>
+    <row r="55" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A55" s="15"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="15"/>
+      <c r="K55" s="15"/>
+      <c r="L55" s="15"/>
+      <c r="M55" s="15"/>
+      <c r="N55" s="15"/>
+      <c r="O55" s="15"/>
+      <c r="P55" s="15"/>
+      <c r="Q55" s="15"/>
+      <c r="R55" s="15"/>
+      <c r="S55" s="15"/>
+      <c r="T55" s="15"/>
+      <c r="U55" s="15"/>
+      <c r="V55" s="15"/>
+      <c r="W55" s="15"/>
+      <c r="X55" s="15"/>
+      <c r="Y55" s="15"/>
+      <c r="Z55" s="15"/>
+      <c r="AA55" s="15"/>
+      <c r="AB55" s="15"/>
+    </row>
+    <row r="56" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A56" s="15"/>
+      <c r="B56" s="15"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="15"/>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="15"/>
+      <c r="K56" s="15"/>
+      <c r="L56" s="15"/>
+      <c r="M56" s="15"/>
+      <c r="N56" s="15"/>
+      <c r="O56" s="15"/>
+      <c r="P56" s="15"/>
+      <c r="Q56" s="15"/>
+      <c r="R56" s="15"/>
+      <c r="S56" s="15"/>
+      <c r="T56" s="15"/>
+      <c r="U56" s="15"/>
+      <c r="V56" s="15"/>
+      <c r="W56" s="15"/>
+      <c r="X56" s="15"/>
+      <c r="Y56" s="15"/>
+      <c r="Z56" s="15"/>
+      <c r="AA56" s="15"/>
+      <c r="AB56" s="15"/>
+    </row>
+    <row r="57" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A57" s="15"/>
+      <c r="B57" s="15"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="15"/>
+      <c r="K57" s="15"/>
+      <c r="L57" s="15"/>
+      <c r="M57" s="15"/>
+      <c r="N57" s="15"/>
+      <c r="O57" s="15"/>
+      <c r="P57" s="15"/>
+      <c r="Q57" s="15"/>
+      <c r="R57" s="15"/>
+      <c r="S57" s="15"/>
+      <c r="T57" s="15"/>
+      <c r="U57" s="15"/>
+      <c r="V57" s="15"/>
+      <c r="W57" s="15"/>
+      <c r="X57" s="15"/>
+      <c r="Y57" s="15"/>
+      <c r="Z57" s="15"/>
+      <c r="AA57" s="15"/>
+      <c r="AB57" s="15"/>
+    </row>
+    <row r="58" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A58" s="15"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="15"/>
+      <c r="K58" s="15"/>
+      <c r="L58" s="15"/>
+      <c r="M58" s="15"/>
+      <c r="N58" s="15"/>
+      <c r="O58" s="15"/>
+      <c r="P58" s="15"/>
+      <c r="Q58" s="15"/>
+      <c r="R58" s="15"/>
+      <c r="S58" s="15"/>
+      <c r="T58" s="15"/>
+      <c r="U58" s="15"/>
+      <c r="V58" s="15"/>
+      <c r="W58" s="15"/>
+      <c r="X58" s="15"/>
+      <c r="Y58" s="15"/>
+      <c r="Z58" s="15"/>
+      <c r="AA58" s="15"/>
+      <c r="AB58" s="15"/>
+    </row>
+    <row r="59" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A59" s="15"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="15"/>
+      <c r="K59" s="15"/>
+      <c r="L59" s="15"/>
+      <c r="M59" s="15"/>
+      <c r="N59" s="15"/>
+      <c r="O59" s="15"/>
+      <c r="P59" s="15"/>
+      <c r="Q59" s="15"/>
+      <c r="R59" s="15"/>
+      <c r="S59" s="15"/>
+      <c r="T59" s="15"/>
+      <c r="U59" s="15"/>
+      <c r="V59" s="15"/>
+      <c r="W59" s="15"/>
+      <c r="X59" s="15"/>
+      <c r="Y59" s="15"/>
+      <c r="Z59" s="15"/>
+      <c r="AA59" s="15"/>
+      <c r="AB59" s="15"/>
+    </row>
+    <row r="60" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A60" s="15"/>
+      <c r="B60" s="15"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="15"/>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="15"/>
+      <c r="K60" s="15"/>
+      <c r="L60" s="15"/>
+      <c r="M60" s="15"/>
+      <c r="N60" s="15"/>
+      <c r="O60" s="15"/>
+      <c r="P60" s="15"/>
+      <c r="Q60" s="15"/>
+      <c r="R60" s="15"/>
+      <c r="S60" s="15"/>
+      <c r="T60" s="15"/>
+      <c r="U60" s="15"/>
+      <c r="V60" s="15"/>
+      <c r="W60" s="15"/>
+      <c r="X60" s="15"/>
+      <c r="Y60" s="15"/>
+      <c r="Z60" s="15"/>
+      <c r="AA60" s="15"/>
+      <c r="AB60" s="15"/>
+    </row>
+    <row r="61" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A61" s="15"/>
+      <c r="B61" s="15"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="15"/>
       <c r="K61" s="15"/>
-      <c r="L61" s="18"/>
-      <c r="M61" t="s">
-        <v>134</v>
-      </c>
-      <c r="N61" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B62">
-        <v>31</v>
-      </c>
-      <c r="C62" t="s">
-        <v>87</v>
-      </c>
-      <c r="I62">
-        <v>32</v>
-      </c>
-      <c r="J62" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="L62" s="4"/>
-      <c r="M62" t="s">
-        <v>134</v>
-      </c>
-      <c r="N62" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B63">
-        <v>33</v>
-      </c>
-      <c r="C63" t="s">
-        <v>88</v>
-      </c>
-      <c r="E63" s="21"/>
-      <c r="F63" t="s">
-        <v>134</v>
-      </c>
-      <c r="G63" t="s">
-        <v>131</v>
-      </c>
-      <c r="I63">
-        <v>34</v>
-      </c>
-      <c r="J63" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="L63" s="11"/>
-      <c r="M63" t="s">
-        <v>134</v>
-      </c>
-      <c r="N63" t="s">
-        <v>128</v>
-      </c>
+      <c r="L61" s="15"/>
+      <c r="M61" s="15"/>
+      <c r="N61" s="15"/>
+      <c r="O61" s="15"/>
+      <c r="P61" s="15"/>
+      <c r="Q61" s="15"/>
+      <c r="R61" s="15"/>
+      <c r="S61" s="15"/>
+      <c r="T61" s="15"/>
+      <c r="U61" s="15"/>
+      <c r="V61" s="15"/>
+      <c r="W61" s="15"/>
+      <c r="X61" s="15"/>
+      <c r="Y61" s="15"/>
+      <c r="Z61" s="15"/>
+      <c r="AA61" s="15"/>
+      <c r="AB61" s="15"/>
+    </row>
+    <row r="62" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A62" s="15"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="15"/>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="15"/>
+      <c r="K62" s="15"/>
+      <c r="L62" s="15"/>
+      <c r="M62" s="15"/>
+      <c r="N62" s="15"/>
+      <c r="O62" s="15"/>
+      <c r="P62" s="15"/>
+      <c r="Q62" s="15"/>
+      <c r="R62" s="15"/>
+      <c r="S62" s="15"/>
+      <c r="T62" s="15"/>
+      <c r="U62" s="15"/>
+      <c r="V62" s="15"/>
+      <c r="W62" s="15"/>
+      <c r="X62" s="15"/>
+      <c r="Y62" s="15"/>
+      <c r="Z62" s="15"/>
+      <c r="AA62" s="15"/>
+      <c r="AB62" s="15"/>
+    </row>
+    <row r="63" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A63" s="15"/>
+      <c r="B63" s="15"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="15"/>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="15"/>
+      <c r="K63" s="15"/>
+      <c r="L63" s="15"/>
+      <c r="M63" s="15"/>
+      <c r="N63" s="15"/>
+      <c r="O63" s="15"/>
+      <c r="P63" s="15"/>
+      <c r="Q63" s="15"/>
+      <c r="R63" s="15"/>
+      <c r="S63" s="15"/>
+      <c r="T63" s="15"/>
+      <c r="U63" s="15"/>
+      <c r="V63" s="15"/>
+      <c r="W63" s="15"/>
+      <c r="X63" s="15"/>
+      <c r="Y63" s="15"/>
+      <c r="Z63" s="15"/>
+      <c r="AA63" s="15"/>
+      <c r="AB63" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="94" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <printOptions gridLines="1"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="81" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;D&amp;T</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 

--- a/Nucleo_DCO接続一覧表.xlsx
+++ b/Nucleo_DCO接続一覧表.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="178">
   <si>
     <t>Pin#</t>
     <phoneticPr fontId="1"/>
@@ -710,11 +710,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2018.09.23</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>PSU</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Reserved</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2018.09.25</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1042,11 +1046,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2143602448"/>
-        <c:axId val="-2143599184"/>
+        <c:axId val="-1402763168"/>
+        <c:axId val="-1402773504"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2143602448"/>
+        <c:axId val="-1402763168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1088,7 +1092,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2143599184"/>
+        <c:crossAx val="-1402773504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1096,7 +1100,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2143599184"/>
+        <c:axId val="-1402773504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1147,7 +1151,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2143602448"/>
+        <c:crossAx val="-1402763168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2113,7 +2117,7 @@
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="O2" s="15"/>
       <c r="P2" s="15"/>
@@ -2469,7 +2473,15 @@
       <c r="Q11" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="S11" s="9"/>
+      <c r="S11" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="T11" t="s">
+        <v>157</v>
+      </c>
+      <c r="U11" t="s">
+        <v>176</v>
+      </c>
       <c r="W11">
         <v>10</v>
       </c>
@@ -2984,7 +2996,7 @@
       </c>
       <c r="S22" s="3"/>
       <c r="T22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="U22" t="s">
         <v>166</v>

--- a/Nucleo_DCO接続一覧表.xlsx
+++ b/Nucleo_DCO接続一覧表.xlsx
@@ -12,17 +12,16 @@
     <workbookView xWindow="120" yWindow="45" windowWidth="18195" windowHeight="11445" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Chart1" sheetId="4" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="接続一覧表" sheetId="1" r:id="rId1"/>
+    <sheet name="接続対応表" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="214">
   <si>
     <t>Pin#</t>
     <phoneticPr fontId="1"/>
@@ -719,6 +718,159 @@
   </si>
   <si>
     <t>2018.09.25</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Nucleo DCO接続対応表</t>
+    <rPh sb="10" eb="12">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2018.10.14</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ADC11</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Master Frequency</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OSC1 Pulse Width</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OSC1 Amplitude</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OSC2 Detune</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OSC2 Pulse Width</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OSC2 Amplitude</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OSC3 Detune</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OSC3 Pulse Width</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OSC3 Amplitude</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Master Amplitude</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Voltage Mon</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OSC1 Frequency Range(B)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OSC1 WaveShape(A)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OSC1 WaveShape(B)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OSC1 Frequency Range(A)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OSC2 WaveShape(B)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OSC2 WaveShape(A)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OSC2 Frequency Range(A)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OSC2 Frequency Range(B)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OSC3 WaveShape(A)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OSC3 WaveShape(B)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OSC3 Frequency Range(A)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OSC3 Frequency Range(B)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Reserved</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OSC1 PulseWidth Avilable</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OSC2 PulseWidth Avilable</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OSC3 PulseWidth Avilable</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Amplitude Clip</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Reserved</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Display Mode</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Display Off</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ADC Off</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -952,828 +1104,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$K$55</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$K$56</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="-1402763168"/>
-        <c:axId val="-1402773504"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="-1402763168"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-1402773504"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="-1402773504"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-1402763168"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
-    </a:p>
-  </c:txPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView zoomScale="111" workbookViewId="0" zoomToFit="1"/>
-  </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</chartsheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9293311" cy="6066824"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2068,8 +1398,8 @@
   </sheetPr>
   <dimension ref="A1:AB63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:AB35"/>
+    <sheetView topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X21" sqref="X21:AB22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4313,14 +3643,552 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F40"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="3.125" customWidth="1"/>
+    <col min="3" max="3" width="3.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="13" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E6" t="s">
+        <v>112</v>
+      </c>
+      <c r="F6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B8" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" t="s">
+        <v>142</v>
+      </c>
+      <c r="E8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B9" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D9" t="s">
+        <v>142</v>
+      </c>
+      <c r="E9" t="s">
+        <v>115</v>
+      </c>
+      <c r="F9" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B10" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" t="s">
+        <v>142</v>
+      </c>
+      <c r="E10" t="s">
+        <v>116</v>
+      </c>
+      <c r="F10" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" t="s">
+        <v>142</v>
+      </c>
+      <c r="E11" t="s">
+        <v>143</v>
+      </c>
+      <c r="F11" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B12" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" t="s">
+        <v>142</v>
+      </c>
+      <c r="E12" t="s">
+        <v>117</v>
+      </c>
+      <c r="F12" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B13" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" t="s">
+        <v>142</v>
+      </c>
+      <c r="E13" t="s">
+        <v>118</v>
+      </c>
+      <c r="F13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B14" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" t="s">
+        <v>142</v>
+      </c>
+      <c r="E14" t="s">
+        <v>119</v>
+      </c>
+      <c r="F14" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B15" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" t="s">
+        <v>173</v>
+      </c>
+      <c r="E15" t="s">
+        <v>180</v>
+      </c>
+      <c r="F15" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B17" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" t="s">
+        <v>144</v>
+      </c>
+      <c r="E17" t="s">
+        <v>145</v>
+      </c>
+      <c r="F17" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B18" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" t="s">
+        <v>144</v>
+      </c>
+      <c r="E18" t="s">
+        <v>146</v>
+      </c>
+      <c r="F18" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B19" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" t="s">
+        <v>144</v>
+      </c>
+      <c r="E19" t="s">
+        <v>147</v>
+      </c>
+      <c r="F19" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B20" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" t="s">
+        <v>144</v>
+      </c>
+      <c r="E20" t="s">
+        <v>148</v>
+      </c>
+      <c r="F20" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B21" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" t="s">
+        <v>144</v>
+      </c>
+      <c r="E21" t="s">
+        <v>149</v>
+      </c>
+      <c r="F21" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B22" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" t="s">
+        <v>144</v>
+      </c>
+      <c r="E22" t="s">
+        <v>150</v>
+      </c>
+      <c r="F22" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B23" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" t="s">
+        <v>144</v>
+      </c>
+      <c r="E23" t="s">
+        <v>151</v>
+      </c>
+      <c r="F23" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B24" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" t="s">
+        <v>144</v>
+      </c>
+      <c r="E24" t="s">
+        <v>152</v>
+      </c>
+      <c r="F24" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B25" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" t="s">
+        <v>144</v>
+      </c>
+      <c r="E25" t="s">
+        <v>153</v>
+      </c>
+      <c r="F25" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B26" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" t="s">
+        <v>144</v>
+      </c>
+      <c r="E26" t="s">
+        <v>154</v>
+      </c>
+      <c r="F26" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B27" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="15"/>
+      <c r="D27" t="s">
+        <v>144</v>
+      </c>
+      <c r="E27" t="s">
+        <v>155</v>
+      </c>
+      <c r="F27" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B28" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" t="s">
+        <v>144</v>
+      </c>
+      <c r="E28" t="s">
+        <v>156</v>
+      </c>
+      <c r="F28" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B29" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" t="s">
+        <v>144</v>
+      </c>
+      <c r="E29" t="s">
+        <v>162</v>
+      </c>
+      <c r="F29" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B31" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="9"/>
+      <c r="D31" t="s">
+        <v>157</v>
+      </c>
+      <c r="E31" t="s">
+        <v>158</v>
+      </c>
+      <c r="F31" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="15"/>
+      <c r="D32" t="s">
+        <v>157</v>
+      </c>
+      <c r="E32" t="s">
+        <v>159</v>
+      </c>
+      <c r="F32" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B33" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="9"/>
+      <c r="D33" t="s">
+        <v>157</v>
+      </c>
+      <c r="E33" t="s">
+        <v>160</v>
+      </c>
+      <c r="F33" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B34" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="9"/>
+      <c r="D34" t="s">
+        <v>157</v>
+      </c>
+      <c r="E34" t="s">
+        <v>161</v>
+      </c>
+      <c r="F34" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B35" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="9"/>
+      <c r="D35" t="s">
+        <v>157</v>
+      </c>
+      <c r="E35" t="s">
+        <v>176</v>
+      </c>
+      <c r="F35" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B37" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C37" s="9"/>
+      <c r="D37" t="s">
+        <v>167</v>
+      </c>
+      <c r="E37" t="s">
+        <v>168</v>
+      </c>
+      <c r="F37" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B38" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C38" s="9"/>
+      <c r="D38" t="s">
+        <v>167</v>
+      </c>
+      <c r="E38" t="s">
+        <v>169</v>
+      </c>
+      <c r="F38" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B39" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C39" s="9"/>
+      <c r="D39" t="s">
+        <v>167</v>
+      </c>
+      <c r="E39" t="s">
+        <v>170</v>
+      </c>
+      <c r="F39" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B40" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C40" s="9"/>
+      <c r="D40" t="s">
+        <v>167</v>
+      </c>
+      <c r="E40" t="s">
+        <v>171</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
+  <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Nucleo_DCO接続一覧表.xlsx
+++ b/Nucleo_DCO接続一覧表.xlsx
@@ -9,19 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="18195" windowHeight="11445" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="18195" windowHeight="11445"/>
   </bookViews>
   <sheets>
     <sheet name="接続一覧表" sheetId="1" r:id="rId1"/>
-    <sheet name="接続対応表" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="184">
   <si>
     <t>Pin#</t>
     <phoneticPr fontId="1"/>
@@ -457,10 +456,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>OUT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Check</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -673,10 +668,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Div Voltage</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>SWs</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -717,160 +708,48 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2018.09.25</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Nucleo DCO接続対応表</t>
-    <rPh sb="10" eb="12">
-      <t>セツゾク</t>
+    <t>GND</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LevelPOT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LevelPOT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PSU</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Div Volt GND</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Div Volt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※ADCの読み取りが変？</t>
+    <rPh sb="5" eb="6">
+      <t>ヨ</t>
     </rPh>
-    <rPh sb="12" eb="14">
-      <t>タイオウ</t>
+    <rPh sb="7" eb="8">
+      <t>ト</t>
     </rPh>
-    <rPh sb="14" eb="15">
-      <t>ヒョウ</t>
+    <rPh sb="10" eb="11">
+      <t>ヘン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2018.10.14</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ADC11</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Description</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Master Frequency</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>OSC1 Pulse Width</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>OSC1 Amplitude</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>OSC2 Detune</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>OSC2 Pulse Width</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>OSC2 Amplitude</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>OSC3 Detune</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>OSC3 Pulse Width</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>OSC3 Amplitude</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Master Amplitude</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Voltage Mon</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>OSC1 Frequency Range(B)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>OSC1 WaveShape(A)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>OSC1 WaveShape(B)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>OSC1 Frequency Range(A)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>OSC2 WaveShape(B)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>OSC2 WaveShape(A)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>OSC2 Frequency Range(A)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>OSC2 Frequency Range(B)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>OSC3 WaveShape(A)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>OSC3 WaveShape(B)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>OSC3 Frequency Range(A)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>OSC3 Frequency Range(B)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Reserved</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>OSC1 PulseWidth Avilable</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>OSC2 PulseWidth Avilable</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>OSC3 PulseWidth Avilable</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Amplitude Clip</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Reserved</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Display Mode</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Display Off</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ADC Off</t>
+    <t>2018.11.03</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1398,8 +1277,8 @@
   </sheetPr>
   <dimension ref="A1:AB63"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X21" sqref="X21:AB22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1447,7 +1326,7 @@
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="O2" s="15"/>
       <c r="P2" s="15"/>
@@ -1585,10 +1464,10 @@
       </c>
       <c r="L7" s="11"/>
       <c r="M7" t="s">
+        <v>143</v>
+      </c>
+      <c r="N7" t="s">
         <v>144</v>
-      </c>
-      <c r="N7" t="s">
-        <v>145</v>
       </c>
       <c r="O7" s="15"/>
       <c r="P7">
@@ -1599,10 +1478,10 @@
       </c>
       <c r="S7" s="6"/>
       <c r="T7" t="s">
+        <v>156</v>
+      </c>
+      <c r="U7" t="s">
         <v>157</v>
-      </c>
-      <c r="U7" t="s">
-        <v>158</v>
       </c>
       <c r="W7">
         <v>2</v>
@@ -1611,7 +1490,7 @@
         <v>66</v>
       </c>
       <c r="Y7" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Z7" s="4"/>
       <c r="AA7" t="s">
@@ -1638,10 +1517,10 @@
       <c r="K8" s="15"/>
       <c r="L8" s="17"/>
       <c r="M8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O8" s="15"/>
       <c r="P8">
@@ -1653,10 +1532,10 @@
       <c r="R8" s="15"/>
       <c r="S8" s="23"/>
       <c r="T8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="U8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="W8">
         <v>4</v>
@@ -1665,7 +1544,7 @@
         <v>67</v>
       </c>
       <c r="Y8" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Z8" s="11"/>
       <c r="AA8" t="s">
@@ -1692,10 +1571,10 @@
       </c>
       <c r="L9" s="3"/>
       <c r="M9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O9" s="15"/>
       <c r="P9">
@@ -1706,10 +1585,10 @@
       </c>
       <c r="S9" s="7"/>
       <c r="T9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="U9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="W9">
         <v>6</v>
@@ -1729,7 +1608,7 @@
       </c>
       <c r="E10" s="4"/>
       <c r="F10" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G10" t="s">
         <v>105</v>
@@ -1742,10 +1621,10 @@
       </c>
       <c r="L10" s="20"/>
       <c r="M10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O10" s="15"/>
       <c r="P10">
@@ -1756,10 +1635,10 @@
       </c>
       <c r="S10" s="21"/>
       <c r="T10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="U10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="W10">
         <v>8</v>
@@ -1769,7 +1648,7 @@
       </c>
       <c r="Z10" s="18"/>
       <c r="AA10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AB10" t="s">
         <v>4</v>
@@ -1791,10 +1670,10 @@
       </c>
       <c r="L11" s="8"/>
       <c r="M11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O11" s="15"/>
       <c r="P11">
@@ -1807,10 +1686,10 @@
         <v>23</v>
       </c>
       <c r="T11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="U11" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="W11">
         <v>10</v>
@@ -1819,7 +1698,7 @@
         <v>69</v>
       </c>
       <c r="Y11" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Z11" s="9"/>
     </row>
@@ -1832,7 +1711,7 @@
       </c>
       <c r="E12" s="18"/>
       <c r="F12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G12" t="s">
         <v>106</v>
@@ -1845,10 +1724,10 @@
       </c>
       <c r="L12" s="6"/>
       <c r="M12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O12" s="15"/>
       <c r="P12">
@@ -1865,7 +1744,7 @@
         <v>70</v>
       </c>
       <c r="Y12" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Z12" s="9"/>
     </row>
@@ -1878,10 +1757,10 @@
       </c>
       <c r="E13" s="18"/>
       <c r="F13" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I13">
         <v>14</v>
@@ -1891,10 +1770,10 @@
       </c>
       <c r="L13" s="5"/>
       <c r="M13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O13" s="15"/>
       <c r="P13">
@@ -1911,7 +1790,7 @@
         <v>35</v>
       </c>
       <c r="Y13" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Z13" s="9"/>
     </row>
@@ -1924,10 +1803,10 @@
       </c>
       <c r="E14" s="4"/>
       <c r="F14" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I14">
         <v>16</v>
@@ -1937,10 +1816,10 @@
       </c>
       <c r="L14" s="7"/>
       <c r="M14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O14" s="15"/>
       <c r="P14">
@@ -1957,7 +1836,7 @@
         <v>71</v>
       </c>
       <c r="Y14" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Z14" s="9"/>
     </row>
@@ -1972,9 +1851,12 @@
       <c r="Q15" t="s">
         <v>65</v>
       </c>
-      <c r="S15" s="3"/>
+      <c r="S15" s="4"/>
       <c r="T15" t="s">
-        <v>107</v>
+        <v>177</v>
+      </c>
+      <c r="U15" t="s">
+        <v>178</v>
       </c>
       <c r="W15">
         <v>18</v>
@@ -1983,7 +1865,7 @@
         <v>72</v>
       </c>
       <c r="Y15" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Z15" s="9"/>
     </row>
@@ -2032,7 +1914,7 @@
         <v>73</v>
       </c>
       <c r="Y16" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Z16" s="9"/>
     </row>
@@ -2044,14 +1926,14 @@
         <v>28</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E17" s="11"/>
       <c r="F17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I17">
         <v>2</v>
@@ -2061,10 +1943,10 @@
       </c>
       <c r="L17" s="22"/>
       <c r="M17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O17" s="15"/>
       <c r="P17" s="13" t="s">
@@ -2079,14 +1961,14 @@
         <v>29</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E18" s="17"/>
       <c r="F18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I18">
         <v>4</v>
@@ -2096,10 +1978,10 @@
       </c>
       <c r="L18" s="11"/>
       <c r="M18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O18" s="15"/>
       <c r="P18" s="13" t="s">
@@ -2140,14 +2022,14 @@
         <v>30</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I19">
         <v>6</v>
@@ -2158,10 +2040,10 @@
       <c r="K19" s="15"/>
       <c r="L19" s="17"/>
       <c r="M19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O19" s="15"/>
       <c r="P19">
@@ -2178,7 +2060,7 @@
         <v>86</v>
       </c>
       <c r="Y19" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Z19" s="9"/>
     </row>
@@ -2190,14 +2072,14 @@
         <v>31</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I20">
         <v>8</v>
@@ -2207,10 +2089,10 @@
       </c>
       <c r="L20" s="3"/>
       <c r="M20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O20" s="15"/>
       <c r="P20">
@@ -2220,7 +2102,13 @@
         <v>17</v>
       </c>
       <c r="R20" s="15"/>
-      <c r="S20" s="15"/>
+      <c r="S20" s="22"/>
+      <c r="T20" t="s">
+        <v>176</v>
+      </c>
+      <c r="U20" t="s">
+        <v>175</v>
+      </c>
       <c r="W20">
         <v>4</v>
       </c>
@@ -2228,7 +2116,7 @@
         <v>87</v>
       </c>
       <c r="Y20" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Z20" s="9"/>
     </row>
@@ -2240,14 +2128,14 @@
         <v>32</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I21">
         <v>10</v>
@@ -2257,10 +2145,10 @@
       </c>
       <c r="L21" s="9"/>
       <c r="M21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O21" s="15"/>
       <c r="P21">
@@ -2269,7 +2157,13 @@
       <c r="Q21" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="S21" s="9"/>
+      <c r="S21" s="18"/>
+      <c r="T21" t="s">
+        <v>179</v>
+      </c>
+      <c r="U21" t="s">
+        <v>180</v>
+      </c>
       <c r="W21">
         <v>6</v>
       </c>
@@ -2277,14 +2171,14 @@
         <v>88</v>
       </c>
       <c r="Y21" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Z21" s="20"/>
       <c r="AA21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AB21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="2:28" x14ac:dyDescent="0.15">
@@ -2295,14 +2189,14 @@
         <v>33</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I22">
         <v>12</v>
@@ -2312,10 +2206,10 @@
       </c>
       <c r="L22" s="18"/>
       <c r="M22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O22" s="15"/>
       <c r="P22">
@@ -2324,12 +2218,12 @@
       <c r="Q22" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="S22" s="3"/>
+      <c r="S22" s="2"/>
       <c r="T22" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="U22" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="W22">
         <v>8</v>
@@ -2338,14 +2232,14 @@
         <v>89</v>
       </c>
       <c r="Y22" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Z22" s="3"/>
       <c r="AA22" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB22" t="s">
         <v>108</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="23" spans="2:28" x14ac:dyDescent="0.15">
@@ -2378,7 +2272,7 @@
         <v>90</v>
       </c>
       <c r="Y23" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Z23" s="9"/>
     </row>
@@ -2390,6 +2284,9 @@
         <v>35</v>
       </c>
       <c r="E24" s="9"/>
+      <c r="F24" t="s">
+        <v>182</v>
+      </c>
       <c r="I24">
         <v>16</v>
       </c>
@@ -2412,7 +2309,7 @@
         <v>91</v>
       </c>
       <c r="Y24" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Z24" s="9"/>
     </row>
@@ -2446,7 +2343,7 @@
         <v>92</v>
       </c>
       <c r="Y25" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Z25" s="9"/>
     </row>
@@ -2480,7 +2377,7 @@
         <v>93</v>
       </c>
       <c r="Y26" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="2:28" x14ac:dyDescent="0.15">
@@ -2514,10 +2411,10 @@
       </c>
       <c r="Z27" s="4"/>
       <c r="AA27" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AB27" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="28" spans="2:28" x14ac:dyDescent="0.15">
@@ -2536,10 +2433,10 @@
       </c>
       <c r="L28" s="7"/>
       <c r="M28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O28" s="15"/>
       <c r="P28">
@@ -2557,10 +2454,10 @@
       </c>
       <c r="Z28" s="3"/>
       <c r="AA28" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB28" t="s">
         <v>167</v>
-      </c>
-      <c r="AB28" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="29" spans="2:28" x14ac:dyDescent="0.15">
@@ -2579,10 +2476,10 @@
       </c>
       <c r="L29" s="21"/>
       <c r="M29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O29" s="15"/>
       <c r="P29">
@@ -2600,7 +2497,7 @@
       </c>
       <c r="Z29" s="11"/>
       <c r="AA29" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AB29" t="s">
         <v>4</v>
@@ -2622,10 +2519,10 @@
       </c>
       <c r="L30" s="18"/>
       <c r="M30" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O30" s="15"/>
       <c r="P30">
@@ -2643,10 +2540,10 @@
       </c>
       <c r="Z30" s="2"/>
       <c r="AA30" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AB30" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="31" spans="2:28" x14ac:dyDescent="0.15">
@@ -2681,10 +2578,10 @@
       </c>
       <c r="Z31" s="8"/>
       <c r="AA31" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AB31" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="32" spans="2:28" x14ac:dyDescent="0.15">
@@ -2728,10 +2625,10 @@
       </c>
       <c r="S33" s="5"/>
       <c r="T33" t="s">
+        <v>141</v>
+      </c>
+      <c r="U33" t="s">
         <v>142</v>
-      </c>
-      <c r="U33" t="s">
-        <v>143</v>
       </c>
       <c r="W33">
         <v>30</v>
@@ -3643,557 +3540,6 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F40"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F40"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="3.125" customWidth="1"/>
-    <col min="3" max="3" width="3.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B4" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="D5" t="s">
-        <v>142</v>
-      </c>
-      <c r="E5" t="s">
-        <v>111</v>
-      </c>
-      <c r="F5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="D6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E6" t="s">
-        <v>112</v>
-      </c>
-      <c r="F6" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="D7" t="s">
-        <v>142</v>
-      </c>
-      <c r="E7" t="s">
-        <v>113</v>
-      </c>
-      <c r="F7" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B8" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="D8" t="s">
-        <v>142</v>
-      </c>
-      <c r="E8" t="s">
-        <v>114</v>
-      </c>
-      <c r="F8" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B9" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="D9" t="s">
-        <v>142</v>
-      </c>
-      <c r="E9" t="s">
-        <v>115</v>
-      </c>
-      <c r="F9" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B10" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="D10" t="s">
-        <v>142</v>
-      </c>
-      <c r="E10" t="s">
-        <v>116</v>
-      </c>
-      <c r="F10" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B11" t="s">
-        <v>83</v>
-      </c>
-      <c r="C11" s="9"/>
-      <c r="D11" t="s">
-        <v>142</v>
-      </c>
-      <c r="E11" t="s">
-        <v>143</v>
-      </c>
-      <c r="F11" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B12" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="9"/>
-      <c r="D12" t="s">
-        <v>142</v>
-      </c>
-      <c r="E12" t="s">
-        <v>117</v>
-      </c>
-      <c r="F12" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B13" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="9"/>
-      <c r="D13" t="s">
-        <v>142</v>
-      </c>
-      <c r="E13" t="s">
-        <v>118</v>
-      </c>
-      <c r="F13" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B14" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="9"/>
-      <c r="D14" t="s">
-        <v>142</v>
-      </c>
-      <c r="E14" t="s">
-        <v>119</v>
-      </c>
-      <c r="F14" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B15" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C15" s="9"/>
-      <c r="D15" t="s">
-        <v>173</v>
-      </c>
-      <c r="E15" t="s">
-        <v>180</v>
-      </c>
-      <c r="F15" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B17" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="9"/>
-      <c r="D17" t="s">
-        <v>144</v>
-      </c>
-      <c r="E17" t="s">
-        <v>145</v>
-      </c>
-      <c r="F17" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B18" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="15"/>
-      <c r="D18" t="s">
-        <v>144</v>
-      </c>
-      <c r="E18" t="s">
-        <v>146</v>
-      </c>
-      <c r="F18" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B19" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="9"/>
-      <c r="D19" t="s">
-        <v>144</v>
-      </c>
-      <c r="E19" t="s">
-        <v>147</v>
-      </c>
-      <c r="F19" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B20" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="9"/>
-      <c r="D20" t="s">
-        <v>144</v>
-      </c>
-      <c r="E20" t="s">
-        <v>148</v>
-      </c>
-      <c r="F20" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B21" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C21" s="9"/>
-      <c r="D21" t="s">
-        <v>144</v>
-      </c>
-      <c r="E21" t="s">
-        <v>149</v>
-      </c>
-      <c r="F21" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B22" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="9"/>
-      <c r="D22" t="s">
-        <v>144</v>
-      </c>
-      <c r="E22" t="s">
-        <v>150</v>
-      </c>
-      <c r="F22" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B23" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="9"/>
-      <c r="D23" t="s">
-        <v>144</v>
-      </c>
-      <c r="E23" t="s">
-        <v>151</v>
-      </c>
-      <c r="F23" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B24" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="9"/>
-      <c r="D24" t="s">
-        <v>144</v>
-      </c>
-      <c r="E24" t="s">
-        <v>152</v>
-      </c>
-      <c r="F24" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B25" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" s="9"/>
-      <c r="D25" t="s">
-        <v>144</v>
-      </c>
-      <c r="E25" t="s">
-        <v>153</v>
-      </c>
-      <c r="F25" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B26" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" s="9"/>
-      <c r="D26" t="s">
-        <v>144</v>
-      </c>
-      <c r="E26" t="s">
-        <v>154</v>
-      </c>
-      <c r="F26" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B27" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" s="15"/>
-      <c r="D27" t="s">
-        <v>144</v>
-      </c>
-      <c r="E27" t="s">
-        <v>155</v>
-      </c>
-      <c r="F27" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B28" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28" s="9"/>
-      <c r="D28" t="s">
-        <v>144</v>
-      </c>
-      <c r="E28" t="s">
-        <v>156</v>
-      </c>
-      <c r="F28" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B29" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C29" s="9"/>
-      <c r="D29" t="s">
-        <v>144</v>
-      </c>
-      <c r="E29" t="s">
-        <v>162</v>
-      </c>
-      <c r="F29" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B31" t="s">
-        <v>60</v>
-      </c>
-      <c r="C31" s="9"/>
-      <c r="D31" t="s">
-        <v>157</v>
-      </c>
-      <c r="E31" t="s">
-        <v>158</v>
-      </c>
-      <c r="F31" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B32" t="s">
-        <v>16</v>
-      </c>
-      <c r="C32" s="15"/>
-      <c r="D32" t="s">
-        <v>157</v>
-      </c>
-      <c r="E32" t="s">
-        <v>159</v>
-      </c>
-      <c r="F32" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B33" t="s">
-        <v>61</v>
-      </c>
-      <c r="C33" s="9"/>
-      <c r="D33" t="s">
-        <v>157</v>
-      </c>
-      <c r="E33" t="s">
-        <v>160</v>
-      </c>
-      <c r="F33" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B34" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C34" s="9"/>
-      <c r="D34" t="s">
-        <v>157</v>
-      </c>
-      <c r="E34" t="s">
-        <v>161</v>
-      </c>
-      <c r="F34" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B35" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35" s="9"/>
-      <c r="D35" t="s">
-        <v>157</v>
-      </c>
-      <c r="E35" t="s">
-        <v>176</v>
-      </c>
-      <c r="F35" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B37" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="C37" s="9"/>
-      <c r="D37" t="s">
-        <v>167</v>
-      </c>
-      <c r="E37" t="s">
-        <v>168</v>
-      </c>
-      <c r="F37" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B38" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C38" s="9"/>
-      <c r="D38" t="s">
-        <v>167</v>
-      </c>
-      <c r="E38" t="s">
-        <v>169</v>
-      </c>
-      <c r="F38" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B39" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="C39" s="9"/>
-      <c r="D39" t="s">
-        <v>167</v>
-      </c>
-      <c r="E39" t="s">
-        <v>170</v>
-      </c>
-      <c r="F39" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B40" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="C40" s="9"/>
-      <c r="D40" t="s">
-        <v>167</v>
-      </c>
-      <c r="E40" t="s">
-        <v>171</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <printOptions gridLines="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Nucleo_DCO接続一覧表.xlsx
+++ b/Nucleo_DCO接続一覧表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="18195" windowHeight="11445"/>
+    <workbookView minimized="1" xWindow="120" yWindow="45" windowWidth="18195" windowHeight="11445"/>
   </bookViews>
   <sheets>
     <sheet name="接続一覧表" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="185">
   <si>
     <t>Pin#</t>
     <phoneticPr fontId="1"/>
@@ -576,180 +576,186 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>ROTENCs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RE1A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RE1B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RE2A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RE2B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RE3A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RE3B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RE4A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RE4B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RE5A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RE5B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RE6A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RE6B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LED1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LED2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LED3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LED4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GND</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GND</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>+9V</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SWs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SW1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SW2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SW3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SW4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PSU</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PSU</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Reserved</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GND</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LevelPOT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LevelPOT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>ADC7</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ROTENCs</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>RE1A</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>RE1B</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>RE2A</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>RE2B</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>RE3A</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>RE3B</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>RE4A</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>RE4B</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>RE5A</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>RE5B</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>RE6A</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>RE6B</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>LEDs</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>LED1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>LED2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>LED3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>LED4</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>GND</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>GND</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>+9V</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SWs</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SW1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SW2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SW3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SW4</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>OLED</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PSU</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PSU</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PSU</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Reserved</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>GND</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>LevelPOT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>LevelPOT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>IN</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PSU</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Div Volt GND</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Div Volt</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>※ADCの読み取りが変？</t>
+    <t>ADC11</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ADC12</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2018.11.24</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ext1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ext1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>POTs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Div Volt </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DivVolt </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※ADCの読み取り値が変？</t>
     <rPh sb="5" eb="6">
       <t>ヨ</t>
     </rPh>
     <rPh sb="7" eb="8">
       <t>ト</t>
     </rPh>
-    <rPh sb="10" eb="11">
+    <rPh sb="9" eb="10">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
       <t>ヘン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2018.11.03</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -892,7 +898,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -966,6 +972,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1277,8 +1286,8 @@
   </sheetPr>
   <dimension ref="A1:AB63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T33" sqref="T33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1326,7 +1335,7 @@
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="O2" s="15"/>
       <c r="P2" s="15"/>
@@ -1464,10 +1473,10 @@
       </c>
       <c r="L7" s="11"/>
       <c r="M7" t="s">
+        <v>142</v>
+      </c>
+      <c r="N7" t="s">
         <v>143</v>
-      </c>
-      <c r="N7" t="s">
-        <v>144</v>
       </c>
       <c r="O7" s="15"/>
       <c r="P7">
@@ -1478,10 +1487,10 @@
       </c>
       <c r="S7" s="6"/>
       <c r="T7" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="U7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="W7">
         <v>2</v>
@@ -1517,10 +1526,10 @@
       <c r="K8" s="15"/>
       <c r="L8" s="17"/>
       <c r="M8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O8" s="15"/>
       <c r="P8">
@@ -1532,10 +1541,10 @@
       <c r="R8" s="15"/>
       <c r="S8" s="23"/>
       <c r="T8" t="s">
+        <v>179</v>
+      </c>
+      <c r="U8" t="s">
         <v>156</v>
-      </c>
-      <c r="U8" t="s">
-        <v>158</v>
       </c>
       <c r="W8">
         <v>4</v>
@@ -1546,7 +1555,7 @@
       <c r="Y8" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="Z8" s="11"/>
+      <c r="Z8" s="3"/>
       <c r="AA8" t="s">
         <v>102</v>
       </c>
@@ -1571,10 +1580,10 @@
       </c>
       <c r="L9" s="3"/>
       <c r="M9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O9" s="15"/>
       <c r="P9">
@@ -1585,10 +1594,10 @@
       </c>
       <c r="S9" s="7"/>
       <c r="T9" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="U9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W9">
         <v>6</v>
@@ -1608,7 +1617,7 @@
       </c>
       <c r="E10" s="4"/>
       <c r="F10" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="G10" t="s">
         <v>105</v>
@@ -1621,10 +1630,10 @@
       </c>
       <c r="L10" s="20"/>
       <c r="M10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O10" s="15"/>
       <c r="P10">
@@ -1635,10 +1644,10 @@
       </c>
       <c r="S10" s="21"/>
       <c r="T10" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="U10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W10">
         <v>8</v>
@@ -1646,13 +1655,7 @@
       <c r="X10" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="Z10" s="18"/>
-      <c r="AA10" t="s">
-        <v>156</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>4</v>
-      </c>
+      <c r="Z10" s="9"/>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.15">
       <c r="B11">
@@ -1670,10 +1673,10 @@
       </c>
       <c r="L11" s="8"/>
       <c r="M11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O11" s="15"/>
       <c r="P11">
@@ -1686,10 +1689,10 @@
         <v>23</v>
       </c>
       <c r="T11" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="U11" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="W11">
         <v>10</v>
@@ -1711,7 +1714,7 @@
       </c>
       <c r="E12" s="18"/>
       <c r="F12" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="G12" t="s">
         <v>106</v>
@@ -1724,10 +1727,10 @@
       </c>
       <c r="L12" s="6"/>
       <c r="M12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O12" s="15"/>
       <c r="P12">
@@ -1757,10 +1760,10 @@
       </c>
       <c r="E13" s="18"/>
       <c r="F13" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I13">
         <v>14</v>
@@ -1770,10 +1773,10 @@
       </c>
       <c r="L13" s="5"/>
       <c r="M13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O13" s="15"/>
       <c r="P13">
@@ -1803,10 +1806,10 @@
       </c>
       <c r="E14" s="4"/>
       <c r="F14" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I14">
         <v>16</v>
@@ -1816,10 +1819,10 @@
       </c>
       <c r="L14" s="7"/>
       <c r="M14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O14" s="15"/>
       <c r="P14">
@@ -1853,10 +1856,10 @@
       </c>
       <c r="S15" s="4"/>
       <c r="T15" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="U15" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="W15">
         <v>18</v>
@@ -1943,10 +1946,10 @@
       </c>
       <c r="L17" s="22"/>
       <c r="M17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O17" s="15"/>
       <c r="P17" s="13" t="s">
@@ -1978,10 +1981,10 @@
       </c>
       <c r="L18" s="11"/>
       <c r="M18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O18" s="15"/>
       <c r="P18" s="13" t="s">
@@ -2040,10 +2043,10 @@
       <c r="K19" s="15"/>
       <c r="L19" s="17"/>
       <c r="M19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O19" s="15"/>
       <c r="P19">
@@ -2089,10 +2092,10 @@
       </c>
       <c r="L20" s="3"/>
       <c r="M20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O20" s="15"/>
       <c r="P20">
@@ -2102,12 +2105,12 @@
         <v>17</v>
       </c>
       <c r="R20" s="15"/>
-      <c r="S20" s="22"/>
+      <c r="S20" s="25"/>
       <c r="T20" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="U20" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="W20">
         <v>4</v>
@@ -2145,10 +2148,10 @@
       </c>
       <c r="L21" s="9"/>
       <c r="M21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N21" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O21" s="15"/>
       <c r="P21">
@@ -2159,10 +2162,10 @@
       </c>
       <c r="S21" s="18"/>
       <c r="T21" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="U21" t="s">
-        <v>180</v>
+        <v>39</v>
       </c>
       <c r="W21">
         <v>6</v>
@@ -2206,10 +2209,10 @@
       </c>
       <c r="L22" s="18"/>
       <c r="M22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N22" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O22" s="15"/>
       <c r="P22">
@@ -2220,10 +2223,10 @@
       </c>
       <c r="S22" s="2"/>
       <c r="T22" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="U22" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="W22">
         <v>8</v>
@@ -2264,7 +2267,13 @@
       <c r="Q23" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="S23" s="9"/>
+      <c r="S23" s="6"/>
+      <c r="T23" t="s">
+        <v>181</v>
+      </c>
+      <c r="U23" t="s">
+        <v>176</v>
+      </c>
       <c r="W23">
         <v>10</v>
       </c>
@@ -2285,7 +2294,7 @@
       </c>
       <c r="E24" s="9"/>
       <c r="F24" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="I24">
         <v>16</v>
@@ -2301,7 +2310,13 @@
       <c r="Q24" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="S24" s="9"/>
+      <c r="S24" s="5"/>
+      <c r="T24" t="s">
+        <v>141</v>
+      </c>
+      <c r="U24" t="s">
+        <v>175</v>
+      </c>
       <c r="W24">
         <v>12</v>
       </c>
@@ -2411,10 +2426,10 @@
       </c>
       <c r="Z27" s="4"/>
       <c r="AA27" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="AB27" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="28" spans="2:28" x14ac:dyDescent="0.15">
@@ -2454,10 +2469,10 @@
       </c>
       <c r="Z28" s="3"/>
       <c r="AA28" t="s">
+        <v>163</v>
+      </c>
+      <c r="AB28" t="s">
         <v>165</v>
-      </c>
-      <c r="AB28" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="29" spans="2:28" x14ac:dyDescent="0.15">
@@ -2497,7 +2512,7 @@
       </c>
       <c r="Z29" s="11"/>
       <c r="AA29" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="AB29" t="s">
         <v>4</v>
@@ -2540,10 +2555,10 @@
       </c>
       <c r="Z30" s="2"/>
       <c r="AA30" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="AB30" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="31" spans="2:28" x14ac:dyDescent="0.15">
@@ -2578,10 +2593,10 @@
       </c>
       <c r="Z31" s="8"/>
       <c r="AA31" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="AB31" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="32" spans="2:28" x14ac:dyDescent="0.15">
@@ -2623,13 +2638,7 @@
       <c r="Q33" t="s">
         <v>83</v>
       </c>
-      <c r="S33" s="5"/>
-      <c r="T33" t="s">
-        <v>141</v>
-      </c>
-      <c r="U33" t="s">
-        <v>142</v>
-      </c>
+      <c r="S33" s="9"/>
       <c r="W33">
         <v>30</v>
       </c>

--- a/Nucleo_DCO接続一覧表.xlsx
+++ b/Nucleo_DCO接続一覧表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="120" yWindow="45" windowWidth="18195" windowHeight="11445"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="18195" windowHeight="11445"/>
   </bookViews>
   <sheets>
     <sheet name="接続一覧表" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="186">
   <si>
     <t>Pin#</t>
     <phoneticPr fontId="1"/>
@@ -717,10 +717,6 @@
   </si>
   <si>
     <t>ADC12</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2018.11.24</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -756,6 +752,14 @@
     <rPh sb="11" eb="12">
       <t>ヘン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2018.11.27</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GND</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1286,8 +1290,8 @@
   </sheetPr>
   <dimension ref="A1:AB63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T33" sqref="T33"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA11" sqref="AA11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1335,7 +1339,7 @@
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="O2" s="15"/>
       <c r="P2" s="15"/>
@@ -1487,7 +1491,7 @@
       </c>
       <c r="S7" s="6"/>
       <c r="T7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="U7" t="s">
         <v>155</v>
@@ -1501,7 +1505,7 @@
       <c r="Y7" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="Z7" s="4"/>
+      <c r="Z7" s="2"/>
       <c r="AA7" t="s">
         <v>102</v>
       </c>
@@ -1541,7 +1545,7 @@
       <c r="R8" s="15"/>
       <c r="S8" s="23"/>
       <c r="T8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="U8" t="s">
         <v>156</v>
@@ -1594,7 +1598,7 @@
       </c>
       <c r="S9" s="7"/>
       <c r="T9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="U9" t="s">
         <v>157</v>
@@ -1617,7 +1621,7 @@
       </c>
       <c r="E10" s="4"/>
       <c r="F10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G10" t="s">
         <v>105</v>
@@ -1644,7 +1648,7 @@
       </c>
       <c r="S10" s="21"/>
       <c r="T10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="U10" t="s">
         <v>158</v>
@@ -1655,7 +1659,13 @@
       <c r="X10" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="Z10" s="9"/>
+      <c r="Z10" s="18"/>
+      <c r="AA10" t="s">
+        <v>178</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.15">
       <c r="B11">
@@ -1689,7 +1699,7 @@
         <v>23</v>
       </c>
       <c r="T11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="U11" t="s">
         <v>170</v>
@@ -1714,7 +1724,7 @@
       </c>
       <c r="E12" s="18"/>
       <c r="F12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G12" t="s">
         <v>106</v>
@@ -2162,7 +2172,7 @@
       </c>
       <c r="S21" s="18"/>
       <c r="T21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="U21" t="s">
         <v>39</v>
@@ -2223,7 +2233,7 @@
       </c>
       <c r="S22" s="2"/>
       <c r="T22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="U22" t="s">
         <v>177</v>
@@ -2269,7 +2279,7 @@
       </c>
       <c r="S23" s="6"/>
       <c r="T23" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="U23" t="s">
         <v>176</v>
@@ -2294,7 +2304,7 @@
       </c>
       <c r="E24" s="9"/>
       <c r="F24" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I24">
         <v>16</v>
